--- a/HealthyHarborWaterWheelTotals2017-9-26.xlsx
+++ b/HealthyHarborWaterWheelTotals2017-9-26.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caseywpb/Documents/Casey's Computer/Trash Wheel/Trash Totals/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="460" windowWidth="23580" windowHeight="19660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Mr. Trash Wheel" sheetId="3" r:id="rId1"/>
@@ -25,11 +20,11 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -946,10 +941,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1755,12 +1750,12 @@
   <dimension ref="A1:O362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="H258" sqref="H258"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" style="60" bestFit="1" customWidth="1"/>
@@ -1776,23 +1771,23 @@
     <col min="16" max="16384" width="10.83203125" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="145" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-    </row>
-    <row r="2" spans="1:15" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="145" customHeight="1">
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+    </row>
+    <row r="2" spans="1:15" s="62" customFormat="1">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -1837,7 +1832,7 @@
       </c>
       <c r="O2" s="61"/>
     </row>
-    <row r="3" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" outlineLevel="2">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -1881,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" outlineLevel="2">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -1925,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" outlineLevel="2">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -1969,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" outlineLevel="2">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -2013,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" outlineLevel="2">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -2057,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" outlineLevel="2">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -2101,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" outlineLevel="2">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -2145,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" outlineLevel="2">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -2189,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A11" s="33"/>
       <c r="B11" s="33" t="s">
         <v>29</v>
@@ -2197,48 +2192,48 @@
       <c r="C11" s="34"/>
       <c r="D11" s="55"/>
       <c r="E11" s="26">
-        <f>SUBTOTAL(9,E3:E10)</f>
+        <f t="shared" ref="E11:N11" si="0">SUBTOTAL(9,E3:E10)</f>
         <v>25.98</v>
       </c>
       <c r="F11" s="20">
-        <f>SUBTOTAL(9,F3:F10)</f>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="G11" s="35">
-        <f>SUBTOTAL(9,G3:G10)</f>
+        <f t="shared" si="0"/>
         <v>14300</v>
       </c>
       <c r="H11" s="35">
-        <f>SUBTOTAL(9,H3:H10)</f>
+        <f t="shared" si="0"/>
         <v>17090</v>
       </c>
       <c r="I11" s="35">
-        <f>SUBTOTAL(9,I3:I10)</f>
+        <f t="shared" si="0"/>
         <v>800000</v>
       </c>
       <c r="J11" s="35">
-        <f>SUBTOTAL(9,J3:J10)</f>
+        <f t="shared" si="0"/>
         <v>424</v>
       </c>
       <c r="K11" s="35">
-        <f>SUBTOTAL(9,K3:K10)</f>
+        <f t="shared" si="0"/>
         <v>6064</v>
       </c>
       <c r="L11" s="35">
-        <f>SUBTOTAL(9,L3:L10)</f>
+        <f t="shared" si="0"/>
         <v>11643</v>
       </c>
       <c r="M11" s="20">
-        <f>SUBTOTAL(9,M3:M10)</f>
+        <f t="shared" si="0"/>
         <v>46.4</v>
       </c>
       <c r="N11" s="20">
-        <f>SUBTOTAL(9,N3:N10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O11" s="61"/>
     </row>
-    <row r="12" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A12" s="36">
         <v>9</v>
       </c>
@@ -2283,7 +2278,7 @@
       </c>
       <c r="O12" s="63"/>
     </row>
-    <row r="13" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A13" s="36">
         <v>10</v>
       </c>
@@ -2328,7 +2323,7 @@
       </c>
       <c r="O13" s="63"/>
     </row>
-    <row r="14" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A14" s="36">
         <v>11</v>
       </c>
@@ -2373,7 +2368,7 @@
       </c>
       <c r="O14" s="63"/>
     </row>
-    <row r="15" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A15" s="36">
         <v>12</v>
       </c>
@@ -2418,7 +2413,7 @@
       </c>
       <c r="O15" s="63"/>
     </row>
-    <row r="16" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A16" s="36">
         <v>13</v>
       </c>
@@ -2463,7 +2458,7 @@
       </c>
       <c r="O16" s="63"/>
     </row>
-    <row r="17" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A17" s="36">
         <v>14</v>
       </c>
@@ -2508,7 +2503,7 @@
       </c>
       <c r="O17" s="63"/>
     </row>
-    <row r="18" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A18" s="36">
         <v>15</v>
       </c>
@@ -2553,7 +2548,7 @@
       </c>
       <c r="O18" s="63"/>
     </row>
-    <row r="19" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A19" s="36">
         <v>16</v>
       </c>
@@ -2598,7 +2593,7 @@
       </c>
       <c r="O19" s="63"/>
     </row>
-    <row r="20" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A20" s="36">
         <v>17</v>
       </c>
@@ -2643,7 +2638,7 @@
       </c>
       <c r="O20" s="63"/>
     </row>
-    <row r="21" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A21" s="33"/>
       <c r="B21" s="33" t="s">
         <v>30</v>
@@ -2651,48 +2646,48 @@
       <c r="C21" s="34"/>
       <c r="D21" s="55"/>
       <c r="E21" s="28">
-        <f>SUBTOTAL(9,E12:E20)</f>
+        <f t="shared" ref="E21:N21" si="1">SUBTOTAL(9,E12:E20)</f>
         <v>32</v>
       </c>
       <c r="F21" s="23">
-        <f>SUBTOTAL(9,F12:F20)</f>
+        <f t="shared" si="1"/>
         <v>139</v>
       </c>
       <c r="G21" s="35">
-        <f>SUBTOTAL(9,G12:G20)</f>
+        <f t="shared" si="1"/>
         <v>10920</v>
       </c>
       <c r="H21" s="35">
-        <f>SUBTOTAL(9,H12:H20)</f>
+        <f t="shared" si="1"/>
         <v>13019</v>
       </c>
       <c r="I21" s="35">
-        <f>SUBTOTAL(9,I12:I20)</f>
+        <f t="shared" si="1"/>
         <v>972000</v>
       </c>
       <c r="J21" s="35">
-        <f>SUBTOTAL(9,J12:J20)</f>
+        <f t="shared" si="1"/>
         <v>494</v>
       </c>
       <c r="K21" s="35">
-        <f>SUBTOTAL(9,K12:K20)</f>
+        <f t="shared" si="1"/>
         <v>4744</v>
       </c>
       <c r="L21" s="35">
-        <f>SUBTOTAL(9,L12:L20)</f>
+        <f t="shared" si="1"/>
         <v>8602</v>
       </c>
       <c r="M21" s="20">
-        <f>SUBTOTAL(9,M12:M20)</f>
+        <f t="shared" si="1"/>
         <v>55.6</v>
       </c>
       <c r="N21" s="20">
-        <f>SUBTOTAL(9,N12:N20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O21" s="61"/>
     </row>
-    <row r="22" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A22" s="36">
         <v>18</v>
       </c>
@@ -2737,7 +2732,7 @@
       </c>
       <c r="O22" s="63"/>
     </row>
-    <row r="23" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A23" s="36">
         <v>19</v>
       </c>
@@ -2782,7 +2777,7 @@
       </c>
       <c r="O23" s="63"/>
     </row>
-    <row r="24" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A24" s="36">
         <v>20</v>
       </c>
@@ -2827,7 +2822,7 @@
       </c>
       <c r="O24" s="63"/>
     </row>
-    <row r="25" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A25" s="36">
         <v>21</v>
       </c>
@@ -2872,7 +2867,7 @@
       </c>
       <c r="O25" s="63"/>
     </row>
-    <row r="26" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A26" s="36">
         <v>22</v>
       </c>
@@ -2917,7 +2912,7 @@
       </c>
       <c r="O26" s="63"/>
     </row>
-    <row r="27" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A27" s="36">
         <v>23</v>
       </c>
@@ -2962,7 +2957,7 @@
       </c>
       <c r="O27" s="63"/>
     </row>
-    <row r="28" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A28" s="36">
         <v>24</v>
       </c>
@@ -3007,7 +3002,7 @@
       </c>
       <c r="O28" s="63"/>
     </row>
-    <row r="29" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A29" s="33"/>
       <c r="B29" s="33" t="s">
         <v>31</v>
@@ -3015,48 +3010,48 @@
       <c r="C29" s="34"/>
       <c r="D29" s="55"/>
       <c r="E29" s="28">
-        <f>SUBTOTAL(9,E22:E28)</f>
+        <f t="shared" ref="E29:N29" si="2">SUBTOTAL(9,E22:E28)</f>
         <v>21.200000000000003</v>
       </c>
       <c r="F29" s="23">
-        <f>SUBTOTAL(9,F22:F28)</f>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="G29" s="35">
-        <f>SUBTOTAL(9,G22:G28)</f>
+        <f t="shared" si="2"/>
         <v>19130</v>
       </c>
       <c r="H29" s="35">
-        <f>SUBTOTAL(9,H22:H28)</f>
+        <f t="shared" si="2"/>
         <v>22310</v>
       </c>
       <c r="I29" s="35">
-        <f>SUBTOTAL(9,I22:I28)</f>
+        <f t="shared" si="2"/>
         <v>757000</v>
       </c>
       <c r="J29" s="35">
-        <f>SUBTOTAL(9,J22:J28)</f>
+        <f t="shared" si="2"/>
         <v>335</v>
       </c>
       <c r="K29" s="35">
-        <f>SUBTOTAL(9,K22:K28)</f>
+        <f t="shared" si="2"/>
         <v>8744</v>
       </c>
       <c r="L29" s="35">
-        <f>SUBTOTAL(9,L22:L28)</f>
+        <f t="shared" si="2"/>
         <v>15943</v>
       </c>
       <c r="M29" s="20">
-        <f>SUBTOTAL(9,M22:M28)</f>
+        <f t="shared" si="2"/>
         <v>42.400000000000006</v>
       </c>
       <c r="N29" s="20">
-        <f>SUBTOTAL(9,N22:N28)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O29" s="61"/>
     </row>
-    <row r="30" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A30" s="36">
         <v>25</v>
       </c>
@@ -3101,7 +3096,7 @@
       </c>
       <c r="O30" s="63"/>
     </row>
-    <row r="31" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A31" s="36">
         <v>26</v>
       </c>
@@ -3146,7 +3141,7 @@
       </c>
       <c r="O31" s="63"/>
     </row>
-    <row r="32" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A32" s="36">
         <v>27</v>
       </c>
@@ -3191,7 +3186,7 @@
       </c>
       <c r="O32" s="63"/>
     </row>
-    <row r="33" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A33" s="36">
         <v>28</v>
       </c>
@@ -3236,7 +3231,7 @@
       </c>
       <c r="O33" s="63"/>
     </row>
-    <row r="34" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A34" s="42">
         <v>29</v>
       </c>
@@ -3281,7 +3276,7 @@
       </c>
       <c r="O34" s="63"/>
     </row>
-    <row r="35" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A35" s="54"/>
       <c r="B35" s="33" t="s">
         <v>32</v>
@@ -3289,48 +3284,48 @@
       <c r="C35" s="34"/>
       <c r="D35" s="19"/>
       <c r="E35" s="28">
-        <f>SUBTOTAL(9,E30:E34)</f>
+        <f t="shared" ref="E35:N35" si="3">SUBTOTAL(9,E30:E34)</f>
         <v>18.169999999999998</v>
       </c>
       <c r="F35" s="23">
-        <f>SUBTOTAL(9,F30:F34)</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="G35" s="23">
-        <f>SUBTOTAL(9,G30:G34)</f>
+        <f t="shared" si="3"/>
         <v>9410</v>
       </c>
       <c r="H35" s="23">
-        <f>SUBTOTAL(9,H30:H34)</f>
+        <f t="shared" si="3"/>
         <v>11010</v>
       </c>
       <c r="I35" s="23">
-        <f>SUBTOTAL(9,I30:I34)</f>
+        <f t="shared" si="3"/>
         <v>535000</v>
       </c>
       <c r="J35" s="23">
-        <f>SUBTOTAL(9,J30:J34)</f>
+        <f t="shared" si="3"/>
         <v>309</v>
       </c>
       <c r="K35" s="23">
-        <f>SUBTOTAL(9,K30:K34)</f>
+        <f t="shared" si="3"/>
         <v>3838</v>
       </c>
       <c r="L35" s="23">
-        <f>SUBTOTAL(9,L30:L34)</f>
+        <f t="shared" si="3"/>
         <v>8731</v>
       </c>
       <c r="M35" s="20">
-        <f>SUBTOTAL(9,M30:M34)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="N35" s="20">
-        <f>SUBTOTAL(9,N30:N34)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O35" s="61"/>
     </row>
-    <row r="36" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A36" s="42">
         <v>30</v>
       </c>
@@ -3375,7 +3370,7 @@
       </c>
       <c r="O36" s="63"/>
     </row>
-    <row r="37" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A37" s="42">
         <v>31</v>
       </c>
@@ -3420,7 +3415,7 @@
       </c>
       <c r="O37" s="63"/>
     </row>
-    <row r="38" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A38" s="42">
         <v>32</v>
       </c>
@@ -3465,7 +3460,7 @@
       </c>
       <c r="O38" s="63"/>
     </row>
-    <row r="39" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A39" s="54"/>
       <c r="B39" s="54" t="s">
         <v>33</v>
@@ -3473,48 +3468,48 @@
       <c r="C39" s="34"/>
       <c r="D39" s="19"/>
       <c r="E39" s="28">
-        <f>SUBTOTAL(9,E36:E38)</f>
+        <f t="shared" ref="E39:N39" si="4">SUBTOTAL(9,E36:E38)</f>
         <v>8.14</v>
       </c>
       <c r="F39" s="23">
-        <f>SUBTOTAL(9,F36:F38)</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="G39" s="23">
-        <f>SUBTOTAL(9,G36:G38)</f>
+        <f t="shared" si="4"/>
         <v>7590</v>
       </c>
       <c r="H39" s="23">
-        <f>SUBTOTAL(9,H36:H38)</f>
+        <f t="shared" si="4"/>
         <v>7380</v>
       </c>
       <c r="I39" s="23">
-        <f>SUBTOTAL(9,I36:I38)</f>
+        <f t="shared" si="4"/>
         <v>440000</v>
       </c>
       <c r="J39" s="23">
-        <f>SUBTOTAL(9,J36:J38)</f>
+        <f t="shared" si="4"/>
         <v>163</v>
       </c>
       <c r="K39" s="23">
-        <f>SUBTOTAL(9,K36:K38)</f>
+        <f t="shared" si="4"/>
         <v>3500</v>
       </c>
       <c r="L39" s="23">
-        <f>SUBTOTAL(9,L36:L38)</f>
+        <f t="shared" si="4"/>
         <v>5100</v>
       </c>
       <c r="M39" s="20">
-        <f>SUBTOTAL(9,M36:M38)</f>
+        <f t="shared" si="4"/>
         <v>16.399999999999999</v>
       </c>
       <c r="N39" s="20">
-        <f>SUBTOTAL(9,N36:N38)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O39" s="61"/>
     </row>
-    <row r="40" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A40" s="42">
         <v>33</v>
       </c>
@@ -3559,7 +3554,7 @@
       </c>
       <c r="O40" s="63"/>
     </row>
-    <row r="41" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A41" s="42">
         <v>34</v>
       </c>
@@ -3604,7 +3599,7 @@
       </c>
       <c r="O41" s="63"/>
     </row>
-    <row r="42" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A42" s="42">
         <v>35</v>
       </c>
@@ -3649,7 +3644,7 @@
       </c>
       <c r="O42" s="63"/>
     </row>
-    <row r="43" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A43" s="42">
         <v>36</v>
       </c>
@@ -3694,7 +3689,7 @@
       </c>
       <c r="O43" s="63"/>
     </row>
-    <row r="44" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A44" s="42">
         <v>37</v>
       </c>
@@ -3739,7 +3734,7 @@
       </c>
       <c r="O44" s="63"/>
     </row>
-    <row r="45" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A45" s="54"/>
       <c r="B45" s="54" t="s">
         <v>34</v>
@@ -3747,48 +3742,48 @@
       <c r="C45" s="34"/>
       <c r="D45" s="19"/>
       <c r="E45" s="28">
-        <f>SUBTOTAL(9,E40:E44)</f>
+        <f t="shared" ref="E45:N45" si="5">SUBTOTAL(9,E40:E44)</f>
         <v>14.72</v>
       </c>
       <c r="F45" s="23">
-        <f>SUBTOTAL(9,F40:F44)</f>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="G45" s="23">
-        <f>SUBTOTAL(9,G40:G44)</f>
+        <f t="shared" si="5"/>
         <v>13990</v>
       </c>
       <c r="H45" s="23">
-        <f>SUBTOTAL(9,H40:H44)</f>
+        <f t="shared" si="5"/>
         <v>15620</v>
       </c>
       <c r="I45" s="23">
-        <f>SUBTOTAL(9,I40:I44)</f>
+        <f t="shared" si="5"/>
         <v>417000</v>
       </c>
       <c r="J45" s="23">
-        <f>SUBTOTAL(9,J40:J44)</f>
+        <f t="shared" si="5"/>
         <v>136</v>
       </c>
       <c r="K45" s="23">
-        <f>SUBTOTAL(9,K40:K44)</f>
+        <f t="shared" si="5"/>
         <v>5890</v>
       </c>
       <c r="L45" s="23">
-        <f>SUBTOTAL(9,L40:L44)</f>
+        <f t="shared" si="5"/>
         <v>8720</v>
       </c>
       <c r="M45" s="20">
-        <f>SUBTOTAL(9,M40:M44)</f>
+        <f t="shared" si="5"/>
         <v>30.799999999999997</v>
       </c>
       <c r="N45" s="20">
-        <f>SUBTOTAL(9,N40:N44)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O45" s="61"/>
     </row>
-    <row r="46" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" outlineLevel="2">
       <c r="A46" s="22">
         <v>38</v>
       </c>
@@ -3832,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" outlineLevel="2">
       <c r="A47" s="22">
         <v>39</v>
       </c>
@@ -3876,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" outlineLevel="2">
       <c r="A48" s="22">
         <v>40</v>
       </c>
@@ -3920,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" outlineLevel="2">
       <c r="A49" s="22">
         <v>41</v>
       </c>
@@ -3964,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A50" s="23"/>
       <c r="B50" s="23" t="s">
         <v>35</v>
@@ -3972,48 +3967,48 @@
       <c r="C50" s="56"/>
       <c r="D50" s="57"/>
       <c r="E50" s="28">
-        <f>SUBTOTAL(9,E46:E49)</f>
+        <f t="shared" ref="E50:N50" si="6">SUBTOTAL(9,E46:E49)</f>
         <v>12.669999999999998</v>
       </c>
       <c r="F50" s="23">
-        <f>SUBTOTAL(9,F46:F49)</f>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="G50" s="20">
-        <f>SUBTOTAL(9,G46:G49)</f>
+        <f t="shared" si="6"/>
         <v>4690</v>
       </c>
       <c r="H50" s="23">
-        <f>SUBTOTAL(9,H46:H49)</f>
+        <f t="shared" si="6"/>
         <v>10220</v>
       </c>
       <c r="I50" s="23">
-        <f>SUBTOTAL(9,I46:I49)</f>
+        <f t="shared" si="6"/>
         <v>155000</v>
       </c>
       <c r="J50" s="23">
-        <f>SUBTOTAL(9,J46:J49)</f>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="K50" s="23">
-        <f>SUBTOTAL(9,K46:K49)</f>
+        <f t="shared" si="6"/>
         <v>3380</v>
       </c>
       <c r="L50" s="23">
-        <f>SUBTOTAL(9,L46:L49)</f>
+        <f t="shared" si="6"/>
         <v>7670</v>
       </c>
       <c r="M50" s="20">
-        <f>SUBTOTAL(9,M46:M49)</f>
+        <f t="shared" si="6"/>
         <v>25.2</v>
       </c>
       <c r="N50" s="20">
-        <f>SUBTOTAL(9,N46:N49)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O50" s="61"/>
     </row>
-    <row r="51" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" outlineLevel="2">
       <c r="A51" s="22">
         <v>42</v>
       </c>
@@ -4057,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" outlineLevel="2">
       <c r="A52" s="22">
         <v>43</v>
       </c>
@@ -4101,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" outlineLevel="2">
       <c r="A53" s="22">
         <v>44</v>
       </c>
@@ -4145,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A54" s="23"/>
       <c r="B54" s="23" t="s">
         <v>36</v>
@@ -4153,48 +4148,48 @@
       <c r="C54" s="34"/>
       <c r="D54" s="19"/>
       <c r="E54" s="26">
-        <f>SUBTOTAL(9,E51:E53)</f>
+        <f t="shared" ref="E54:N54" si="7">SUBTOTAL(9,E51:E53)</f>
         <v>8.4700000000000006</v>
       </c>
       <c r="F54" s="20">
-        <f>SUBTOTAL(9,F51:F53)</f>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="G54" s="20">
-        <f>SUBTOTAL(9,G51:G53)</f>
+        <f t="shared" si="7"/>
         <v>2560</v>
       </c>
       <c r="H54" s="20">
-        <f>SUBTOTAL(9,H51:H53)</f>
+        <f t="shared" si="7"/>
         <v>6260</v>
       </c>
       <c r="I54" s="20">
-        <f>SUBTOTAL(9,I51:I53)</f>
+        <f t="shared" si="7"/>
         <v>86000</v>
       </c>
       <c r="J54" s="20">
-        <f>SUBTOTAL(9,J51:J53)</f>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="K54" s="20">
-        <f>SUBTOTAL(9,K51:K53)</f>
+        <f t="shared" si="7"/>
         <v>2570</v>
       </c>
       <c r="L54" s="20">
-        <f>SUBTOTAL(9,L51:L53)</f>
+        <f t="shared" si="7"/>
         <v>4440</v>
       </c>
       <c r="M54" s="20">
-        <f>SUBTOTAL(9,M51:M53)</f>
+        <f t="shared" si="7"/>
         <v>18.8</v>
       </c>
       <c r="N54" s="20">
-        <f>SUBTOTAL(9,N51:N53)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O54" s="61"/>
     </row>
-    <row r="55" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" outlineLevel="2">
       <c r="A55" s="69">
         <v>45</v>
       </c>
@@ -4238,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" outlineLevel="2">
       <c r="A56" s="69">
         <v>46</v>
       </c>
@@ -4282,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" outlineLevel="2">
       <c r="A57" s="69">
         <v>47</v>
       </c>
@@ -4326,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A58" s="17"/>
       <c r="B58" s="23" t="s">
         <v>37</v>
@@ -4334,48 +4329,48 @@
       <c r="C58" s="56"/>
       <c r="D58" s="19"/>
       <c r="E58" s="26">
-        <f>SUBTOTAL(9,E55:E57)</f>
+        <f t="shared" ref="E58:N58" si="8">SUBTOTAL(9,E55:E57)</f>
         <v>7.01</v>
       </c>
       <c r="F58" s="20">
-        <f>SUBTOTAL(9,F55:F57)</f>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="G58" s="20">
-        <f>SUBTOTAL(9,G55:G57)</f>
+        <f t="shared" si="8"/>
         <v>4070</v>
       </c>
       <c r="H58" s="20">
-        <f>SUBTOTAL(9,H55:H57)</f>
+        <f t="shared" si="8"/>
         <v>7300</v>
       </c>
       <c r="I58" s="20">
-        <f>SUBTOTAL(9,I55:I57)</f>
+        <f t="shared" si="8"/>
         <v>92000</v>
       </c>
       <c r="J58" s="20">
-        <f>SUBTOTAL(9,J55:J57)</f>
+        <f t="shared" si="8"/>
         <v>143</v>
       </c>
       <c r="K58" s="20">
-        <f>SUBTOTAL(9,K55:K57)</f>
+        <f t="shared" si="8"/>
         <v>1930</v>
       </c>
       <c r="L58" s="20">
-        <f>SUBTOTAL(9,L55:L57)</f>
+        <f t="shared" si="8"/>
         <v>4530</v>
       </c>
       <c r="M58" s="20">
-        <f>SUBTOTAL(9,M55:M57)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="N58" s="20">
-        <f>SUBTOTAL(9,N55:N57)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O58" s="61"/>
     </row>
-    <row r="59" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" outlineLevel="2">
       <c r="A59" s="69">
         <v>48</v>
       </c>
@@ -4420,7 +4415,7 @@
         <v>42.333333333333336</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A60" s="17"/>
       <c r="B60" s="23" t="s">
         <v>38</v>
@@ -4428,48 +4423,48 @@
       <c r="C60" s="56"/>
       <c r="D60" s="19"/>
       <c r="E60" s="26">
-        <f>SUBTOTAL(9,E59:E59)</f>
+        <f t="shared" ref="E60:N60" si="9">SUBTOTAL(9,E59:E59)</f>
         <v>2.54</v>
       </c>
       <c r="F60" s="20">
-        <f>SUBTOTAL(9,F59:F59)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="G60" s="20">
-        <f>SUBTOTAL(9,G59:G59)</f>
+        <f t="shared" si="9"/>
         <v>1740</v>
       </c>
       <c r="H60" s="20">
-        <f>SUBTOTAL(9,H59:H59)</f>
+        <f t="shared" si="9"/>
         <v>2250</v>
       </c>
       <c r="I60" s="20">
-        <f>SUBTOTAL(9,I59:I59)</f>
+        <f t="shared" si="9"/>
         <v>22000</v>
       </c>
       <c r="J60" s="20">
-        <f>SUBTOTAL(9,J59:J59)</f>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="K60" s="20">
-        <f>SUBTOTAL(9,K59:K59)</f>
+        <f t="shared" si="9"/>
         <v>320</v>
       </c>
       <c r="L60" s="20">
-        <f>SUBTOTAL(9,L59:L59)</f>
+        <f t="shared" si="9"/>
         <v>980</v>
       </c>
       <c r="M60" s="20">
-        <f>SUBTOTAL(9,M59:M59)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="N60" s="20">
-        <f>SUBTOTAL(9,N59:N59)</f>
+        <f t="shared" si="9"/>
         <v>42.333333333333336</v>
       </c>
       <c r="O60" s="61"/>
     </row>
-    <row r="61" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" outlineLevel="2">
       <c r="A61" s="69">
         <v>49</v>
       </c>
@@ -4514,7 +4509,7 @@
         <v>63.666666666666664</v>
       </c>
     </row>
-    <row r="62" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" outlineLevel="2">
       <c r="A62" s="69">
         <v>50</v>
       </c>
@@ -4559,7 +4554,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="63" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" outlineLevel="2">
       <c r="A63" s="69">
         <v>51</v>
       </c>
@@ -4604,7 +4599,7 @@
         <v>33.666666666666664</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>39</v>
@@ -4612,48 +4607,48 @@
       <c r="C64" s="56"/>
       <c r="D64" s="19"/>
       <c r="E64" s="26">
-        <f>SUBTOTAL(9,E61:E63)</f>
+        <f t="shared" ref="E64:N64" si="10">SUBTOTAL(9,E61:E63)</f>
         <v>7.67</v>
       </c>
       <c r="F64" s="20">
-        <f>SUBTOTAL(9,F61:F63)</f>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="G64" s="20">
-        <f>SUBTOTAL(9,G61:G63)</f>
+        <f t="shared" si="10"/>
         <v>8770</v>
       </c>
       <c r="H64" s="20">
-        <f>SUBTOTAL(9,H61:H63)</f>
+        <f t="shared" si="10"/>
         <v>13650</v>
       </c>
       <c r="I64" s="20">
-        <f>SUBTOTAL(9,I61:I63)</f>
+        <f t="shared" si="10"/>
         <v>83000</v>
       </c>
       <c r="J64" s="20">
-        <f>SUBTOTAL(9,J61:J63)</f>
+        <f t="shared" si="10"/>
         <v>127</v>
       </c>
       <c r="K64" s="20">
-        <f>SUBTOTAL(9,K61:K63)</f>
+        <f t="shared" si="10"/>
         <v>1660</v>
       </c>
       <c r="L64" s="20">
-        <f>SUBTOTAL(9,L61:L63)</f>
+        <f t="shared" si="10"/>
         <v>2940</v>
       </c>
       <c r="M64" s="20">
-        <f>SUBTOTAL(9,M61:M63)</f>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="N64" s="20">
-        <f>SUBTOTAL(9,N61:N63)</f>
+        <f t="shared" si="10"/>
         <v>127.83333333333331</v>
       </c>
       <c r="O64" s="61"/>
     </row>
-    <row r="65" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" outlineLevel="2">
       <c r="A65" s="69">
         <v>52</v>
       </c>
@@ -4698,7 +4693,7 @@
         <v>41.666666666666664</v>
       </c>
     </row>
-    <row r="66" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" outlineLevel="2">
       <c r="A66" s="69">
         <v>53</v>
       </c>
@@ -4743,7 +4738,7 @@
         <v>56.833333333333336</v>
       </c>
     </row>
-    <row r="67" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" outlineLevel="2">
       <c r="A67" s="69">
         <v>54</v>
       </c>
@@ -4788,7 +4783,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" outlineLevel="2">
       <c r="A68" s="69">
         <v>55</v>
       </c>
@@ -4833,7 +4828,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" outlineLevel="2">
       <c r="A69" s="69">
         <v>56</v>
       </c>
@@ -4878,7 +4873,7 @@
         <v>53.666666666666664</v>
       </c>
     </row>
-    <row r="70" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" outlineLevel="2">
       <c r="A70" s="69">
         <v>57</v>
       </c>
@@ -4925,7 +4920,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" outlineLevel="2">
       <c r="A71" s="69">
         <v>58</v>
       </c>
@@ -4972,7 +4967,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" outlineLevel="2">
       <c r="A72" s="69">
         <v>59</v>
       </c>
@@ -5017,7 +5012,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A73" s="17"/>
       <c r="B73" s="54" t="s">
         <v>40</v>
@@ -5025,48 +5020,48 @@
       <c r="C73" s="56"/>
       <c r="D73" s="19"/>
       <c r="E73" s="26">
-        <f>SUBTOTAL(9,E65:E72)</f>
+        <f t="shared" ref="E73:N73" si="11">SUBTOTAL(9,E65:E72)</f>
         <v>24.01</v>
       </c>
       <c r="F73" s="20">
-        <f>SUBTOTAL(9,F65:F72)</f>
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
       <c r="G73" s="20">
-        <f>SUBTOTAL(9,G65:G72)</f>
+        <f t="shared" si="11"/>
         <v>13330</v>
       </c>
       <c r="H73" s="20">
-        <f>SUBTOTAL(9,H65:H72)</f>
+        <f t="shared" si="11"/>
         <v>16250</v>
       </c>
       <c r="I73" s="20">
-        <f>SUBTOTAL(9,I65:I72)</f>
+        <f t="shared" si="11"/>
         <v>177000</v>
       </c>
       <c r="J73" s="20">
-        <f>SUBTOTAL(9,J65:J72)</f>
+        <f t="shared" si="11"/>
         <v>188</v>
       </c>
       <c r="K73" s="20">
-        <f>SUBTOTAL(9,K65:K72)</f>
+        <f t="shared" si="11"/>
         <v>2760</v>
       </c>
       <c r="L73" s="20">
-        <f>SUBTOTAL(9,L65:L72)</f>
+        <f t="shared" si="11"/>
         <v>6180</v>
       </c>
       <c r="M73" s="20">
-        <f>SUBTOTAL(9,M65:M72)</f>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="N73" s="20">
-        <f>SUBTOTAL(9,N65:N72)</f>
+        <f t="shared" si="11"/>
         <v>305.66666666666663</v>
       </c>
       <c r="O73" s="61"/>
     </row>
-    <row r="74" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" outlineLevel="2">
       <c r="A74" s="69">
         <v>60</v>
       </c>
@@ -5107,11 +5102,11 @@
         <v>8</v>
       </c>
       <c r="N74" s="14">
-        <f t="shared" ref="N74:N79" si="0">SUM((E74*500)/30)</f>
+        <f t="shared" ref="N74:N79" si="12">SUM((E74*500)/30)</f>
         <v>32.5</v>
       </c>
     </row>
-    <row r="75" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" outlineLevel="2">
       <c r="A75" s="69">
         <v>61</v>
       </c>
@@ -5152,11 +5147,11 @@
         <v>22</v>
       </c>
       <c r="N75" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>70.833333333333329</v>
       </c>
     </row>
-    <row r="76" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" outlineLevel="2">
       <c r="A76" s="69">
         <v>62</v>
       </c>
@@ -5197,11 +5192,11 @@
         <v>28</v>
       </c>
       <c r="N76" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>93.666666666666671</v>
       </c>
     </row>
-    <row r="77" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" outlineLevel="2">
       <c r="A77" s="69">
         <v>63</v>
       </c>
@@ -5242,11 +5237,11 @@
         <v>19</v>
       </c>
       <c r="N77" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>63.5</v>
       </c>
     </row>
-    <row r="78" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" outlineLevel="2">
       <c r="A78" s="69">
         <v>64</v>
       </c>
@@ -5287,11 +5282,11 @@
         <v>32</v>
       </c>
       <c r="N78" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>57.5</v>
       </c>
     </row>
-    <row r="79" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" outlineLevel="2">
       <c r="A79" s="69">
         <v>65</v>
       </c>
@@ -5332,11 +5327,11 @@
         <v>24</v>
       </c>
       <c r="N79" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>55.666666666666664</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A80" s="17"/>
       <c r="B80" s="54" t="s">
         <v>29</v>
@@ -5344,48 +5339,48 @@
       <c r="C80" s="56"/>
       <c r="D80" s="19"/>
       <c r="E80" s="26">
-        <f>SUBTOTAL(9,E74:E79)</f>
+        <f t="shared" ref="E80:N80" si="13">SUBTOTAL(9,E74:E79)</f>
         <v>22.42</v>
       </c>
       <c r="F80" s="20">
-        <f>SUBTOTAL(9,F74:F79)</f>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="G80" s="20">
-        <f>SUBTOTAL(9,G74:G79)</f>
+        <f t="shared" si="13"/>
         <v>13170</v>
       </c>
       <c r="H80" s="20">
-        <f>SUBTOTAL(9,H74:H79)</f>
+        <f t="shared" si="13"/>
         <v>18560</v>
       </c>
       <c r="I80" s="20">
-        <f>SUBTOTAL(9,I74:I79)</f>
+        <f t="shared" si="13"/>
         <v>231000</v>
       </c>
       <c r="J80" s="20">
-        <f>SUBTOTAL(9,J74:J79)</f>
+        <f t="shared" si="13"/>
         <v>172</v>
       </c>
       <c r="K80" s="20">
-        <f>SUBTOTAL(9,K74:K79)</f>
+        <f t="shared" si="13"/>
         <v>5010</v>
       </c>
       <c r="L80" s="20">
-        <f>SUBTOTAL(9,L74:L79)</f>
+        <f t="shared" si="13"/>
         <v>7950</v>
       </c>
       <c r="M80" s="20">
-        <f>SUBTOTAL(9,M74:M79)</f>
+        <f t="shared" si="13"/>
         <v>133</v>
       </c>
       <c r="N80" s="20">
-        <f>SUBTOTAL(9,N74:N79)</f>
+        <f t="shared" si="13"/>
         <v>373.66666666666669</v>
       </c>
       <c r="O80" s="61"/>
     </row>
-    <row r="81" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" outlineLevel="2">
       <c r="A81" s="69">
         <v>66</v>
       </c>
@@ -5430,7 +5425,7 @@
         <v>42.333333333333336</v>
       </c>
     </row>
-    <row r="82" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" outlineLevel="2">
       <c r="A82" s="69">
         <v>67</v>
       </c>
@@ -5475,7 +5470,7 @@
         <v>77.666666666666671</v>
       </c>
     </row>
-    <row r="83" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" outlineLevel="2">
       <c r="A83" s="69">
         <v>68</v>
       </c>
@@ -5520,7 +5515,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="84" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" outlineLevel="2">
       <c r="A84" s="69">
         <v>69</v>
       </c>
@@ -5565,7 +5560,7 @@
         <v>52.833333333333336</v>
       </c>
     </row>
-    <row r="85" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" outlineLevel="2">
       <c r="A85" s="69">
         <v>70</v>
       </c>
@@ -5610,7 +5605,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="86" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" outlineLevel="2">
       <c r="A86" s="69">
         <v>71</v>
       </c>
@@ -5657,7 +5652,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" outlineLevel="2">
       <c r="A87" s="69">
         <v>72</v>
       </c>
@@ -5702,7 +5697,7 @@
         <v>79.666666666666671</v>
       </c>
     </row>
-    <row r="88" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" outlineLevel="2">
       <c r="A88" s="69">
         <v>73</v>
       </c>
@@ -5749,7 +5744,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" outlineLevel="2">
       <c r="A89" s="69">
         <v>74</v>
       </c>
@@ -5796,7 +5791,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" outlineLevel="2">
       <c r="A90" s="69">
         <v>75</v>
       </c>
@@ -5843,7 +5838,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="91" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" outlineLevel="2">
       <c r="A91" s="69">
         <v>76</v>
       </c>
@@ -5890,7 +5885,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" outlineLevel="2">
       <c r="A92" s="69">
         <v>77</v>
       </c>
@@ -5934,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" outlineLevel="2">
       <c r="A93" s="69">
         <v>78</v>
       </c>
@@ -5981,7 +5976,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" outlineLevel="2">
       <c r="A94" s="69">
         <v>79</v>
       </c>
@@ -6022,11 +6017,11 @@
         <v>16</v>
       </c>
       <c r="N94" s="14">
-        <f t="shared" ref="N94:N101" si="1">SUM((E94*500)/30)</f>
+        <f t="shared" ref="N94:N101" si="14">SUM((E94*500)/30)</f>
         <v>40.666666666666664</v>
       </c>
     </row>
-    <row r="95" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" outlineLevel="2">
       <c r="A95" s="69">
         <v>80</v>
       </c>
@@ -6067,11 +6062,11 @@
         <v>22</v>
       </c>
       <c r="N95" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>47.5</v>
       </c>
     </row>
-    <row r="96" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" outlineLevel="2">
       <c r="A96" s="69">
         <v>81</v>
       </c>
@@ -6112,11 +6107,11 @@
         <v>32</v>
       </c>
       <c r="N96" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>57.166666666666664</v>
       </c>
     </row>
-    <row r="97" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" outlineLevel="2">
       <c r="A97" s="69">
         <v>82</v>
       </c>
@@ -6157,11 +6152,11 @@
         <v>18</v>
       </c>
       <c r="N97" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>71.333333333333329</v>
       </c>
     </row>
-    <row r="98" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" outlineLevel="2">
       <c r="A98" s="69">
         <v>83</v>
       </c>
@@ -6202,11 +6197,11 @@
         <v>21</v>
       </c>
       <c r="N98" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>65.666666666666671</v>
       </c>
     </row>
-    <row r="99" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" outlineLevel="2">
       <c r="A99" s="69">
         <v>84</v>
       </c>
@@ -6247,11 +6242,11 @@
         <v>34</v>
       </c>
       <c r="N99" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>56.333333333333336</v>
       </c>
     </row>
-    <row r="100" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" outlineLevel="2">
       <c r="A100" s="69">
         <v>85</v>
       </c>
@@ -6292,11 +6287,11 @@
         <v>19</v>
       </c>
       <c r="N100" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>57.5</v>
       </c>
     </row>
-    <row r="101" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" outlineLevel="2">
       <c r="A101" s="69">
         <v>86</v>
       </c>
@@ -6337,11 +6332,11 @@
         <v>14</v>
       </c>
       <c r="N101" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>65.5</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A102" s="17"/>
       <c r="B102" s="54" t="s">
         <v>30</v>
@@ -6349,48 +6344,48 @@
       <c r="C102" s="18"/>
       <c r="D102" s="19"/>
       <c r="E102" s="26">
-        <f>SUBTOTAL(9,E81:E101)</f>
+        <f t="shared" ref="E102:N102" si="15">SUBTOTAL(9,E81:E101)</f>
         <v>76.890000000000015</v>
       </c>
       <c r="F102" s="20">
-        <f>SUBTOTAL(9,F81:F101)</f>
+        <f t="shared" si="15"/>
         <v>336</v>
       </c>
       <c r="G102" s="20">
-        <f>SUBTOTAL(9,G81:G101)</f>
+        <f t="shared" si="15"/>
         <v>35290</v>
       </c>
       <c r="H102" s="20">
-        <f>SUBTOTAL(9,H81:H101)</f>
+        <f t="shared" si="15"/>
         <v>45740</v>
       </c>
       <c r="I102" s="20">
-        <f>SUBTOTAL(9,I81:I101)</f>
+        <f t="shared" si="15"/>
         <v>999000</v>
       </c>
       <c r="J102" s="20">
-        <f>SUBTOTAL(9,J81:J101)</f>
+        <f t="shared" si="15"/>
         <v>639</v>
       </c>
       <c r="K102" s="20">
-        <f>SUBTOTAL(9,K81:K101)</f>
+        <f t="shared" si="15"/>
         <v>32640</v>
       </c>
       <c r="L102" s="20">
-        <f>SUBTOTAL(9,L81:L101)</f>
+        <f t="shared" si="15"/>
         <v>39240</v>
       </c>
       <c r="M102" s="20">
-        <f>SUBTOTAL(9,M81:M101)</f>
+        <f t="shared" si="15"/>
         <v>420</v>
       </c>
       <c r="N102" s="20">
-        <f>SUBTOTAL(9,N81:N101)</f>
+        <f t="shared" si="15"/>
         <v>823.16666666666674</v>
       </c>
       <c r="O102" s="61"/>
     </row>
-    <row r="103" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" outlineLevel="2">
       <c r="A103" s="42">
         <v>87</v>
       </c>
@@ -6431,11 +6426,11 @@
         <v>22</v>
       </c>
       <c r="N103" s="14">
-        <f t="shared" ref="N103:N108" si="2">SUM((E103*500)/30)</f>
+        <f t="shared" ref="N103:N108" si="16">SUM((E103*500)/30)</f>
         <v>67.833333333333343</v>
       </c>
     </row>
-    <row r="104" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" outlineLevel="2">
       <c r="A104" s="69">
         <v>88</v>
       </c>
@@ -6476,11 +6471,11 @@
         <v>16</v>
       </c>
       <c r="N104" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>50.5</v>
       </c>
     </row>
-    <row r="105" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" outlineLevel="2">
       <c r="A105" s="42">
         <v>89</v>
       </c>
@@ -6521,11 +6516,11 @@
         <v>25</v>
       </c>
       <c r="N105" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>58.666666666666664</v>
       </c>
     </row>
-    <row r="106" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" outlineLevel="2">
       <c r="A106" s="69">
         <v>90</v>
       </c>
@@ -6566,11 +6561,11 @@
         <v>27</v>
       </c>
       <c r="N106" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>58.5</v>
       </c>
     </row>
-    <row r="107" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" outlineLevel="2">
       <c r="A107" s="42">
         <v>91</v>
       </c>
@@ -6611,11 +6606,11 @@
         <v>18</v>
       </c>
       <c r="N107" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>61.333333333333336</v>
       </c>
     </row>
-    <row r="108" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" outlineLevel="2">
       <c r="A108" s="69">
         <v>92</v>
       </c>
@@ -6656,11 +6651,11 @@
         <v>20</v>
       </c>
       <c r="N108" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>56.666666666666664</v>
       </c>
     </row>
-    <row r="109" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A109" s="17"/>
       <c r="B109" s="54" t="s">
         <v>31</v>
@@ -6668,48 +6663,48 @@
       <c r="C109" s="18"/>
       <c r="D109" s="19"/>
       <c r="E109" s="26">
-        <f>SUBTOTAL(9,E103:E108)</f>
+        <f t="shared" ref="E109:N109" si="17">SUBTOTAL(9,E103:E108)</f>
         <v>21.209999999999997</v>
       </c>
       <c r="F109" s="20">
-        <f>SUBTOTAL(9,F103:F108)</f>
+        <f t="shared" si="17"/>
         <v>96</v>
       </c>
       <c r="G109" s="20">
-        <f>SUBTOTAL(9,G103:G108)</f>
+        <f t="shared" si="17"/>
         <v>16370</v>
       </c>
       <c r="H109" s="20">
-        <f>SUBTOTAL(9,H103:H108)</f>
+        <f t="shared" si="17"/>
         <v>21110</v>
       </c>
       <c r="I109" s="20">
-        <f>SUBTOTAL(9,I103:I108)</f>
+        <f t="shared" si="17"/>
         <v>448000</v>
       </c>
       <c r="J109" s="20">
-        <f>SUBTOTAL(9,J103:J108)</f>
+        <f t="shared" si="17"/>
         <v>196</v>
       </c>
       <c r="K109" s="20">
-        <f>SUBTOTAL(9,K103:K108)</f>
+        <f t="shared" si="17"/>
         <v>11290</v>
       </c>
       <c r="L109" s="20">
-        <f>SUBTOTAL(9,L103:L108)</f>
+        <f t="shared" si="17"/>
         <v>16400</v>
       </c>
       <c r="M109" s="20">
-        <f>SUBTOTAL(9,M103:M108)</f>
+        <f t="shared" si="17"/>
         <v>128</v>
       </c>
       <c r="N109" s="20">
-        <f>SUBTOTAL(9,N103:N108)</f>
+        <f t="shared" si="17"/>
         <v>353.5</v>
       </c>
       <c r="O109" s="61"/>
     </row>
-    <row r="110" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" outlineLevel="2">
       <c r="A110" s="42">
         <v>93</v>
       </c>
@@ -6754,7 +6749,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="111" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" outlineLevel="2">
       <c r="A111" s="69">
         <v>94</v>
       </c>
@@ -6799,7 +6794,7 @@
         <v>30.666666666666668</v>
       </c>
     </row>
-    <row r="112" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" outlineLevel="2">
       <c r="A112" s="42">
         <v>95</v>
       </c>
@@ -6844,7 +6839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" outlineLevel="2">
       <c r="A113" s="69">
         <v>96</v>
       </c>
@@ -6889,7 +6884,7 @@
         <v>72.166666666666671</v>
       </c>
     </row>
-    <row r="114" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" outlineLevel="2">
       <c r="A114" s="42">
         <v>97</v>
       </c>
@@ -6936,7 +6931,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" outlineLevel="2">
       <c r="A115" s="69">
         <v>98</v>
       </c>
@@ -6983,7 +6978,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A116" s="17"/>
       <c r="B116" s="54" t="s">
         <v>32</v>
@@ -6991,48 +6986,48 @@
       <c r="C116" s="18"/>
       <c r="D116" s="19"/>
       <c r="E116" s="26">
-        <f>SUBTOTAL(9,E110:E115)</f>
+        <f t="shared" ref="E116:N116" si="18">SUBTOTAL(9,E110:E115)</f>
         <v>20.580000000000002</v>
       </c>
       <c r="F116" s="20">
-        <f>SUBTOTAL(9,F110:F115)</f>
+        <f t="shared" si="18"/>
         <v>87</v>
       </c>
       <c r="G116" s="20">
-        <f>SUBTOTAL(9,G110:G115)</f>
+        <f t="shared" si="18"/>
         <v>9760</v>
       </c>
       <c r="H116" s="20">
-        <f>SUBTOTAL(9,H110:H115)</f>
+        <f t="shared" si="18"/>
         <v>11200</v>
       </c>
       <c r="I116" s="20">
-        <f>SUBTOTAL(9,I110:I115)</f>
+        <f t="shared" si="18"/>
         <v>252000</v>
       </c>
       <c r="J116" s="20">
-        <f>SUBTOTAL(9,J110:J115)</f>
+        <f t="shared" si="18"/>
         <v>130</v>
       </c>
       <c r="K116" s="20">
-        <f>SUBTOTAL(9,K110:K115)</f>
+        <f t="shared" si="18"/>
         <v>6980</v>
       </c>
       <c r="L116" s="20">
-        <f>SUBTOTAL(9,L110:L115)</f>
+        <f t="shared" si="18"/>
         <v>8840</v>
       </c>
       <c r="M116" s="20">
-        <f>SUBTOTAL(9,M110:M115)</f>
+        <f t="shared" si="18"/>
         <v>136</v>
       </c>
       <c r="N116" s="20">
-        <f>SUBTOTAL(9,N110:N115)</f>
+        <f t="shared" si="18"/>
         <v>214.83333333333337</v>
       </c>
       <c r="O116" s="61"/>
     </row>
-    <row r="117" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" outlineLevel="2">
       <c r="A117" s="42">
         <v>99</v>
       </c>
@@ -7079,7 +7074,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A118" s="50">
         <v>100</v>
       </c>
@@ -7126,7 +7121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" outlineLevel="2">
       <c r="A119" s="69">
         <v>101</v>
       </c>
@@ -7173,7 +7168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" outlineLevel="2">
       <c r="A120" s="42">
         <v>102</v>
       </c>
@@ -7220,7 +7215,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" outlineLevel="2">
       <c r="A121" s="69">
         <v>103</v>
       </c>
@@ -7265,7 +7260,7 @@
         <v>55.166666666666664</v>
       </c>
     </row>
-    <row r="122" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A122" s="17"/>
       <c r="B122" s="54" t="s">
         <v>33</v>
@@ -7273,48 +7268,48 @@
       <c r="C122" s="18"/>
       <c r="D122" s="19"/>
       <c r="E122" s="26">
-        <f>SUBTOTAL(9,E117:E121)</f>
+        <f t="shared" ref="E122:N122" si="19">SUBTOTAL(9,E117:E121)</f>
         <v>17.649999999999999</v>
       </c>
       <c r="F122" s="20">
-        <f>SUBTOTAL(9,F117:F121)</f>
+        <f t="shared" si="19"/>
         <v>73</v>
       </c>
       <c r="G122" s="20">
-        <f>SUBTOTAL(9,G117:G121)</f>
+        <f t="shared" si="19"/>
         <v>6890</v>
       </c>
       <c r="H122" s="20">
-        <f>SUBTOTAL(9,H117:H121)</f>
+        <f t="shared" si="19"/>
         <v>8120</v>
       </c>
       <c r="I122" s="20">
-        <f>SUBTOTAL(9,I117:I121)</f>
+        <f t="shared" si="19"/>
         <v>182000</v>
       </c>
       <c r="J122" s="20">
-        <f>SUBTOTAL(9,J117:J121)</f>
+        <f t="shared" si="19"/>
         <v>155</v>
       </c>
       <c r="K122" s="20">
-        <f>SUBTOTAL(9,K117:K121)</f>
+        <f t="shared" si="19"/>
         <v>5760</v>
       </c>
       <c r="L122" s="20">
-        <f>SUBTOTAL(9,L117:L121)</f>
+        <f t="shared" si="19"/>
         <v>6960</v>
       </c>
       <c r="M122" s="20">
-        <f>SUBTOTAL(9,M117:M121)</f>
+        <f t="shared" si="19"/>
         <v>57</v>
       </c>
       <c r="N122" s="20">
-        <f>SUBTOTAL(9,N117:N121)</f>
+        <f t="shared" si="19"/>
         <v>55.166666666666664</v>
       </c>
       <c r="O122" s="61"/>
     </row>
-    <row r="123" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" outlineLevel="2">
       <c r="A123" s="69">
         <v>104</v>
       </c>
@@ -7361,7 +7356,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" outlineLevel="2">
       <c r="A124" s="42">
         <v>105</v>
       </c>
@@ -7406,7 +7401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" outlineLevel="2">
       <c r="A125" s="69">
         <v>106</v>
       </c>
@@ -7451,7 +7446,7 @@
         <v>48.166666666666664</v>
       </c>
     </row>
-    <row r="126" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A126" s="17"/>
       <c r="B126" s="54" t="s">
         <v>34</v>
@@ -7459,48 +7454,48 @@
       <c r="C126" s="18"/>
       <c r="D126" s="19"/>
       <c r="E126" s="26">
-        <f>SUBTOTAL(9,E123:E125)</f>
+        <f t="shared" ref="E126:N126" si="20">SUBTOTAL(9,E123:E125)</f>
         <v>8.25</v>
       </c>
       <c r="F126" s="20">
-        <f>SUBTOTAL(9,F123:F125)</f>
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
       <c r="G126" s="20">
-        <f>SUBTOTAL(9,G123:G125)</f>
+        <f t="shared" si="20"/>
         <v>7340</v>
       </c>
       <c r="H126" s="20">
-        <f>SUBTOTAL(9,H123:H125)</f>
+        <f t="shared" si="20"/>
         <v>8160</v>
       </c>
       <c r="I126" s="20">
-        <f>SUBTOTAL(9,I123:I125)</f>
+        <f t="shared" si="20"/>
         <v>112000</v>
       </c>
       <c r="J126" s="20">
-        <f>SUBTOTAL(9,J123:J125)</f>
+        <f t="shared" si="20"/>
         <v>132</v>
       </c>
       <c r="K126" s="20">
-        <f>SUBTOTAL(9,K123:K125)</f>
+        <f t="shared" si="20"/>
         <v>6650</v>
       </c>
       <c r="L126" s="20">
-        <f>SUBTOTAL(9,L123:L125)</f>
+        <f t="shared" si="20"/>
         <v>8400</v>
       </c>
       <c r="M126" s="20">
-        <f>SUBTOTAL(9,M123:M125)</f>
+        <f t="shared" si="20"/>
         <v>72</v>
       </c>
       <c r="N126" s="20">
-        <f>SUBTOTAL(9,N123:N125)</f>
+        <f t="shared" si="20"/>
         <v>89.166666666666657</v>
       </c>
       <c r="O126" s="61"/>
     </row>
-    <row r="127" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A127" s="42">
         <v>107</v>
       </c>
@@ -7547,7 +7542,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A128" s="54"/>
       <c r="B128" s="54" t="s">
         <v>35</v>
@@ -7555,48 +7550,48 @@
       <c r="C128" s="56"/>
       <c r="D128" s="19"/>
       <c r="E128" s="26">
-        <f>SUBTOTAL(9,E127:E127)</f>
+        <f t="shared" ref="E128:N128" si="21">SUBTOTAL(9,E127:E127)</f>
         <v>4.46</v>
       </c>
       <c r="F128" s="20">
-        <f>SUBTOTAL(9,F127:F127)</f>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="G128" s="20">
-        <f>SUBTOTAL(9,G127:G127)</f>
+        <f t="shared" si="21"/>
         <v>1940</v>
       </c>
       <c r="H128" s="20">
-        <f>SUBTOTAL(9,H127:H127)</f>
+        <f t="shared" si="21"/>
         <v>2230</v>
       </c>
       <c r="I128" s="20">
-        <f>SUBTOTAL(9,I127:I127)</f>
+        <f t="shared" si="21"/>
         <v>28000</v>
       </c>
       <c r="J128" s="20">
-        <f>SUBTOTAL(9,J127:J127)</f>
+        <f t="shared" si="21"/>
         <v>47</v>
       </c>
       <c r="K128" s="20">
-        <f>SUBTOTAL(9,K127:K127)</f>
+        <f t="shared" si="21"/>
         <v>2960</v>
       </c>
       <c r="L128" s="20">
-        <f>SUBTOTAL(9,L127:L127)</f>
+        <f t="shared" si="21"/>
         <v>3320</v>
       </c>
       <c r="M128" s="20">
-        <f>SUBTOTAL(9,M127:M127)</f>
+        <f t="shared" si="21"/>
         <v>27</v>
       </c>
       <c r="N128" s="20">
-        <f>SUBTOTAL(9,N127:N127)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O128" s="61"/>
     </row>
-    <row r="129" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" outlineLevel="2">
       <c r="A129" s="69">
         <v>108</v>
       </c>
@@ -7643,7 +7638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="130" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" outlineLevel="2">
       <c r="A130" s="42">
         <v>109</v>
       </c>
@@ -7690,7 +7685,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="131" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" outlineLevel="2">
       <c r="A131" s="69">
         <v>110</v>
       </c>
@@ -7731,11 +7726,11 @@
         <v>9</v>
       </c>
       <c r="N131" s="40">
-        <f t="shared" ref="N131:N136" si="3">SUM((E131*500)/30)</f>
+        <f t="shared" ref="N131:N136" si="22">SUM((E131*500)/30)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" outlineLevel="2">
       <c r="A132" s="69">
         <v>111</v>
       </c>
@@ -7776,11 +7771,11 @@
         <v>13</v>
       </c>
       <c r="N132" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>48.333333333333336</v>
       </c>
     </row>
-    <row r="133" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" outlineLevel="2">
       <c r="A133" s="69">
         <v>112</v>
       </c>
@@ -7821,11 +7816,11 @@
         <v>22</v>
       </c>
       <c r="N133" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" outlineLevel="2">
       <c r="A134" s="42">
         <v>113</v>
       </c>
@@ -7866,11 +7861,11 @@
         <v>17</v>
       </c>
       <c r="N134" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>73.5</v>
       </c>
     </row>
-    <row r="135" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" outlineLevel="2">
       <c r="A135" s="69">
         <v>114</v>
       </c>
@@ -7911,11 +7906,11 @@
         <v>27</v>
       </c>
       <c r="N135" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>56.5</v>
       </c>
     </row>
-    <row r="136" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A136" s="50">
         <v>115</v>
       </c>
@@ -7956,12 +7951,12 @@
         <v>8</v>
       </c>
       <c r="N136" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>54.5</v>
       </c>
       <c r="O136" s="63"/>
     </row>
-    <row r="137" spans="1:15" s="62" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" s="62" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A137" s="17"/>
       <c r="B137" s="54" t="s">
         <v>36</v>
@@ -7969,48 +7964,48 @@
       <c r="C137" s="56"/>
       <c r="D137" s="19"/>
       <c r="E137" s="26">
-        <f>SUBTOTAL(9,E129:E136)</f>
+        <f t="shared" ref="E137:N137" si="23">SUBTOTAL(9,E129:E136)</f>
         <v>26.110000000000003</v>
       </c>
       <c r="F137" s="20">
-        <f>SUBTOTAL(9,F129:F136)</f>
+        <f t="shared" si="23"/>
         <v>126</v>
       </c>
       <c r="G137" s="20">
-        <f>SUBTOTAL(9,G129:G136)</f>
+        <f t="shared" si="23"/>
         <v>17460</v>
       </c>
       <c r="H137" s="20">
-        <f>SUBTOTAL(9,H129:H136)</f>
+        <f t="shared" si="23"/>
         <v>23140</v>
       </c>
       <c r="I137" s="20">
-        <f>SUBTOTAL(9,I129:I136)</f>
+        <f t="shared" si="23"/>
         <v>230000</v>
       </c>
       <c r="J137" s="20">
-        <f>SUBTOTAL(9,J129:J136)</f>
+        <f t="shared" si="23"/>
         <v>360</v>
       </c>
       <c r="K137" s="20">
-        <f>SUBTOTAL(9,K129:K136)</f>
+        <f t="shared" si="23"/>
         <v>20880</v>
       </c>
       <c r="L137" s="20">
-        <f>SUBTOTAL(9,L129:L136)</f>
+        <f t="shared" si="23"/>
         <v>25550</v>
       </c>
       <c r="M137" s="20">
-        <f>SUBTOTAL(9,M129:M136)</f>
+        <f t="shared" si="23"/>
         <v>132</v>
       </c>
       <c r="N137" s="20">
-        <f>SUBTOTAL(9,N129:N136)</f>
+        <f t="shared" si="23"/>
         <v>318.83333333333337</v>
       </c>
       <c r="O137" s="61"/>
     </row>
-    <row r="138" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" outlineLevel="2">
       <c r="A138" s="69">
         <v>116</v>
       </c>
@@ -8055,7 +8050,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A139" s="17"/>
       <c r="B139" s="54" t="s">
         <v>37</v>
@@ -8063,48 +8058,48 @@
       <c r="C139" s="56"/>
       <c r="D139" s="19"/>
       <c r="E139" s="26">
-        <f>SUBTOTAL(9,E138:E138)</f>
+        <f t="shared" ref="E139:N139" si="24">SUBTOTAL(9,E138:E138)</f>
         <v>3.6</v>
       </c>
       <c r="F139" s="20">
-        <f>SUBTOTAL(9,F138:F138)</f>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="G139" s="20">
-        <f>SUBTOTAL(9,G138:G138)</f>
+        <f t="shared" si="24"/>
         <v>3240</v>
       </c>
       <c r="H139" s="20">
-        <f>SUBTOTAL(9,H138:H138)</f>
+        <f t="shared" si="24"/>
         <v>4160</v>
       </c>
       <c r="I139" s="20">
-        <f>SUBTOTAL(9,I138:I138)</f>
+        <f t="shared" si="24"/>
         <v>28000</v>
       </c>
       <c r="J139" s="20">
-        <f>SUBTOTAL(9,J138:J138)</f>
+        <f t="shared" si="24"/>
         <v>54</v>
       </c>
       <c r="K139" s="20">
-        <f>SUBTOTAL(9,K138:K138)</f>
+        <f t="shared" si="24"/>
         <v>1360</v>
       </c>
       <c r="L139" s="20">
-        <f>SUBTOTAL(9,L138:L138)</f>
+        <f t="shared" si="24"/>
         <v>2580</v>
       </c>
       <c r="M139" s="20">
-        <f>SUBTOTAL(9,M138:M138)</f>
+        <f t="shared" si="24"/>
         <v>17</v>
       </c>
       <c r="N139" s="20">
-        <f>SUBTOTAL(9,N138:N138)</f>
+        <f t="shared" si="24"/>
         <v>60</v>
       </c>
       <c r="O139" s="61"/>
     </row>
-    <row r="140" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" outlineLevel="2">
       <c r="A140" s="69">
         <v>117</v>
       </c>
@@ -8145,11 +8140,11 @@
         <v>14</v>
       </c>
       <c r="N140" s="14">
-        <f t="shared" ref="N140:N145" si="4">SUM((E140*500)/30)</f>
+        <f t="shared" ref="N140:N145" si="25">SUM((E140*500)/30)</f>
         <v>67.666666666666657</v>
       </c>
     </row>
-    <row r="141" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" outlineLevel="2">
       <c r="A141" s="42">
         <v>118</v>
       </c>
@@ -8190,11 +8185,11 @@
         <v>21</v>
       </c>
       <c r="N141" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>35.166666666666664</v>
       </c>
     </row>
-    <row r="142" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" outlineLevel="2">
       <c r="A142" s="69">
         <v>119</v>
       </c>
@@ -8235,11 +8230,11 @@
         <v>26</v>
       </c>
       <c r="N142" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>50.166666666666664</v>
       </c>
     </row>
-    <row r="143" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" outlineLevel="2">
       <c r="A143" s="50">
         <v>120</v>
       </c>
@@ -8280,11 +8275,11 @@
         <v>6</v>
       </c>
       <c r="N143" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>56.833333333333336</v>
       </c>
     </row>
-    <row r="144" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" outlineLevel="2">
       <c r="A144" s="69">
         <v>121</v>
       </c>
@@ -8325,11 +8320,11 @@
         <v>4</v>
       </c>
       <c r="N144" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>61</v>
       </c>
     </row>
-    <row r="145" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" outlineLevel="2">
       <c r="A145" s="69">
         <v>122</v>
       </c>
@@ -8370,11 +8365,11 @@
         <v>16</v>
       </c>
       <c r="N145" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>75.166666666666671</v>
       </c>
     </row>
-    <row r="146" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A146" s="17"/>
       <c r="B146" s="54" t="s">
         <v>38</v>
@@ -8382,48 +8377,48 @@
       <c r="C146" s="56"/>
       <c r="D146" s="19"/>
       <c r="E146" s="26">
-        <f>SUBTOTAL(9,E140:E145)</f>
+        <f t="shared" ref="E146:N146" si="26">SUBTOTAL(9,E140:E145)</f>
         <v>20.759999999999998</v>
       </c>
       <c r="F146" s="20">
-        <f>SUBTOTAL(9,F140:F145)</f>
+        <f t="shared" si="26"/>
         <v>96</v>
       </c>
       <c r="G146" s="20">
-        <f>SUBTOTAL(9,G140:G145)</f>
+        <f t="shared" si="26"/>
         <v>12860</v>
       </c>
       <c r="H146" s="20">
-        <f>SUBTOTAL(9,H140:H145)</f>
+        <f t="shared" si="26"/>
         <v>18080</v>
       </c>
       <c r="I146" s="20">
-        <f>SUBTOTAL(9,I140:I145)</f>
+        <f t="shared" si="26"/>
         <v>163000</v>
       </c>
       <c r="J146" s="20">
-        <f>SUBTOTAL(9,J140:J145)</f>
+        <f t="shared" si="26"/>
         <v>246</v>
       </c>
       <c r="K146" s="20">
-        <f>SUBTOTAL(9,K140:K145)</f>
+        <f t="shared" si="26"/>
         <v>11250</v>
       </c>
       <c r="L146" s="20">
-        <f>SUBTOTAL(9,L140:L145)</f>
+        <f t="shared" si="26"/>
         <v>14000</v>
       </c>
       <c r="M146" s="20">
-        <f>SUBTOTAL(9,M140:M145)</f>
+        <f t="shared" si="26"/>
         <v>87</v>
       </c>
       <c r="N146" s="20">
-        <f>SUBTOTAL(9,N140:N145)</f>
+        <f t="shared" si="26"/>
         <v>346</v>
       </c>
       <c r="O146" s="61"/>
     </row>
-    <row r="147" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" outlineLevel="2">
       <c r="A147" s="69">
         <v>123</v>
       </c>
@@ -8468,7 +8463,7 @@
         <v>48.166666666666664</v>
       </c>
     </row>
-    <row r="148" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" outlineLevel="2">
       <c r="A148" s="69">
         <v>124</v>
       </c>
@@ -8513,7 +8508,7 @@
         <v>48.166666666666664</v>
       </c>
     </row>
-    <row r="149" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" outlineLevel="2">
       <c r="A149" s="69">
         <v>125</v>
       </c>
@@ -8558,7 +8553,7 @@
         <v>41.833333333333336</v>
       </c>
     </row>
-    <row r="150" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" outlineLevel="2">
       <c r="A150" s="69">
         <v>126</v>
       </c>
@@ -8603,7 +8598,7 @@
         <v>59.666666666666664</v>
       </c>
     </row>
-    <row r="151" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" outlineLevel="2">
       <c r="A151" s="69">
         <v>127</v>
       </c>
@@ -8648,7 +8643,7 @@
         <v>56.833333333333336</v>
       </c>
     </row>
-    <row r="152" spans="1:15" s="62" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" s="62" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <c r="A152" s="17"/>
       <c r="B152" s="54" t="s">
         <v>45</v>
@@ -8656,48 +8651,48 @@
       <c r="C152" s="58"/>
       <c r="D152" s="19"/>
       <c r="E152" s="26">
-        <f>SUBTOTAL(9,E147:E151)</f>
+        <f t="shared" ref="E152:N152" si="27">SUBTOTAL(9,E147:E151)</f>
         <v>15.28</v>
       </c>
       <c r="F152" s="20">
-        <f>SUBTOTAL(9,F147:F151)</f>
+        <f t="shared" si="27"/>
         <v>81</v>
       </c>
       <c r="G152" s="20">
-        <f>SUBTOTAL(9,G147:G151)</f>
+        <f t="shared" si="27"/>
         <v>12700</v>
       </c>
       <c r="H152" s="20">
-        <f>SUBTOTAL(9,H147:H151)</f>
+        <f t="shared" si="27"/>
         <v>13930</v>
       </c>
       <c r="I152" s="20">
-        <f>SUBTOTAL(9,I147:I151)</f>
+        <f t="shared" si="27"/>
         <v>152000</v>
       </c>
       <c r="J152" s="20">
-        <f>SUBTOTAL(9,J147:J151)</f>
+        <f t="shared" si="27"/>
         <v>205</v>
       </c>
       <c r="K152" s="20">
-        <f>SUBTOTAL(9,K147:K151)</f>
+        <f t="shared" si="27"/>
         <v>12930</v>
       </c>
       <c r="L152" s="20">
-        <f>SUBTOTAL(9,L147:L151)</f>
+        <f t="shared" si="27"/>
         <v>14440</v>
       </c>
       <c r="M152" s="20">
-        <f>SUBTOTAL(9,M147:M151)</f>
+        <f t="shared" si="27"/>
         <v>149</v>
       </c>
       <c r="N152" s="20">
-        <f>SUBTOTAL(9,N147:N151)</f>
+        <f t="shared" si="27"/>
         <v>254.66666666666666</v>
       </c>
       <c r="O152" s="61"/>
     </row>
-    <row r="153" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" outlineLevel="2">
       <c r="A153" s="52">
         <v>128</v>
       </c>
@@ -8742,7 +8737,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="154" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" outlineLevel="2">
       <c r="A154" s="52">
         <v>129</v>
       </c>
@@ -8787,7 +8782,7 @@
         <v>70.166666666666671</v>
       </c>
     </row>
-    <row r="155" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" outlineLevel="2">
       <c r="A155" s="52">
         <v>130</v>
       </c>
@@ -8832,7 +8827,7 @@
         <v>81.333333333333329</v>
       </c>
     </row>
-    <row r="156" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" outlineLevel="2">
       <c r="A156" s="69">
         <v>131</v>
       </c>
@@ -8878,7 +8873,7 @@
       </c>
       <c r="O156" s="60"/>
     </row>
-    <row r="157" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" outlineLevel="2">
       <c r="A157" s="69">
         <v>132</v>
       </c>
@@ -8924,7 +8919,7 @@
       </c>
       <c r="O157" s="60"/>
     </row>
-    <row r="158" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A158" s="17"/>
       <c r="B158" s="18" t="s">
         <v>40</v>
@@ -8932,47 +8927,47 @@
       <c r="C158" s="18"/>
       <c r="D158" s="19"/>
       <c r="E158" s="26">
-        <f>SUBTOTAL(9,E153:E157)</f>
+        <f t="shared" ref="E158:N158" si="28">SUBTOTAL(9,E153:E157)</f>
         <v>19.639999999999997</v>
       </c>
       <c r="F158" s="20">
-        <f>SUBTOTAL(9,F153:F157)</f>
+        <f t="shared" si="28"/>
         <v>81</v>
       </c>
       <c r="G158" s="20">
-        <f>SUBTOTAL(9,G153:G157)</f>
+        <f t="shared" si="28"/>
         <v>16950</v>
       </c>
       <c r="H158" s="20">
-        <f>SUBTOTAL(9,H153:H157)</f>
+        <f t="shared" si="28"/>
         <v>18700</v>
       </c>
       <c r="I158" s="20">
-        <f>SUBTOTAL(9,I153:I157)</f>
+        <f t="shared" si="28"/>
         <v>234000</v>
       </c>
       <c r="J158" s="20">
-        <f>SUBTOTAL(9,J153:J157)</f>
+        <f t="shared" si="28"/>
         <v>164</v>
       </c>
       <c r="K158" s="20">
-        <f>SUBTOTAL(9,K153:K157)</f>
+        <f t="shared" si="28"/>
         <v>15860</v>
       </c>
       <c r="L158" s="20">
-        <f>SUBTOTAL(9,L153:L157)</f>
+        <f t="shared" si="28"/>
         <v>17460</v>
       </c>
       <c r="M158" s="20">
-        <f>SUBTOTAL(9,M153:M157)</f>
+        <f t="shared" si="28"/>
         <v>159</v>
       </c>
       <c r="N158" s="20">
-        <f>SUBTOTAL(9,N153:N157)</f>
+        <f t="shared" si="28"/>
         <v>327.33333333333331</v>
       </c>
     </row>
-    <row r="159" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" outlineLevel="2">
       <c r="A159" s="69">
         <v>133</v>
       </c>
@@ -9018,7 +9013,7 @@
       </c>
       <c r="O159" s="60"/>
     </row>
-    <row r="160" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" outlineLevel="2">
       <c r="A160" s="69">
         <v>134</v>
       </c>
@@ -9064,7 +9059,7 @@
       </c>
       <c r="O160" s="60"/>
     </row>
-    <row r="161" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" outlineLevel="2">
       <c r="A161" s="69">
         <v>135</v>
       </c>
@@ -9110,7 +9105,7 @@
       </c>
       <c r="O161" s="60"/>
     </row>
-    <row r="162" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A162" s="17"/>
       <c r="B162" s="16" t="s">
         <v>29</v>
@@ -9118,47 +9113,47 @@
       <c r="C162" s="18"/>
       <c r="D162" s="19"/>
       <c r="E162" s="26">
-        <f>SUBTOTAL(9,E159:E161)</f>
+        <f t="shared" ref="E162:N162" si="29">SUBTOTAL(9,E159:E161)</f>
         <v>9.4600000000000009</v>
       </c>
       <c r="F162" s="20">
-        <f>SUBTOTAL(9,F159:F161)</f>
+        <f t="shared" si="29"/>
         <v>48</v>
       </c>
       <c r="G162" s="20">
-        <f>SUBTOTAL(9,G159:G161)</f>
+        <f t="shared" si="29"/>
         <v>11560</v>
       </c>
       <c r="H162" s="20">
-        <f>SUBTOTAL(9,H159:H161)</f>
+        <f t="shared" si="29"/>
         <v>12580</v>
       </c>
       <c r="I162" s="20">
-        <f>SUBTOTAL(9,I159:I161)</f>
+        <f t="shared" si="29"/>
         <v>156000</v>
       </c>
       <c r="J162" s="20">
-        <f>SUBTOTAL(9,J159:J161)</f>
+        <f t="shared" si="29"/>
         <v>141</v>
       </c>
       <c r="K162" s="20">
-        <f>SUBTOTAL(9,K159:K161)</f>
+        <f t="shared" si="29"/>
         <v>6167</v>
       </c>
       <c r="L162" s="20">
-        <f>SUBTOTAL(9,L159:L161)</f>
+        <f t="shared" si="29"/>
         <v>8530</v>
       </c>
       <c r="M162" s="20">
-        <f>SUBTOTAL(9,M159:M161)</f>
+        <f t="shared" si="29"/>
         <v>96</v>
       </c>
       <c r="N162" s="20">
-        <f>SUBTOTAL(9,N159:N161)</f>
+        <f t="shared" si="29"/>
         <v>157.66666666666666</v>
       </c>
     </row>
-    <row r="163" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" outlineLevel="2">
       <c r="A163" s="69">
         <v>136</v>
       </c>
@@ -9204,7 +9199,7 @@
       </c>
       <c r="O163" s="60"/>
     </row>
-    <row r="164" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" outlineLevel="2">
       <c r="A164" s="69">
         <v>137</v>
       </c>
@@ -9250,7 +9245,7 @@
       </c>
       <c r="O164" s="60"/>
     </row>
-    <row r="165" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" outlineLevel="2">
       <c r="A165" s="69">
         <v>138</v>
       </c>
@@ -9291,12 +9286,12 @@
         <v>24</v>
       </c>
       <c r="N165" s="14">
-        <f t="shared" ref="N165:N241" si="5">SUM((E165*500)/30)</f>
+        <f t="shared" ref="N165:N241" si="30">SUM((E165*500)/30)</f>
         <v>66.333333333333329</v>
       </c>
       <c r="O165" s="60"/>
     </row>
-    <row r="166" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" outlineLevel="2">
       <c r="A166" s="69">
         <v>139</v>
       </c>
@@ -9337,12 +9332,12 @@
         <v>35</v>
       </c>
       <c r="N166" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>57.833333333333336</v>
       </c>
       <c r="O166" s="60"/>
     </row>
-    <row r="167" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" outlineLevel="2">
       <c r="A167" s="69">
         <v>140</v>
       </c>
@@ -9383,12 +9378,12 @@
         <v>26</v>
       </c>
       <c r="N167" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>66.166666666666671</v>
       </c>
       <c r="O167" s="60"/>
     </row>
-    <row r="168" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" outlineLevel="2">
       <c r="A168" s="69">
         <v>141</v>
       </c>
@@ -9429,12 +9424,12 @@
         <v>29</v>
       </c>
       <c r="N168" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>52</v>
       </c>
       <c r="O168" s="60"/>
     </row>
-    <row r="169" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A169" s="17"/>
       <c r="B169" s="16" t="s">
         <v>30</v>
@@ -9442,47 +9437,47 @@
       <c r="C169" s="18"/>
       <c r="D169" s="19"/>
       <c r="E169" s="26">
-        <f>SUBTOTAL(9,E163:E168)</f>
+        <f t="shared" ref="E169:N169" si="31">SUBTOTAL(9,E163:E168)</f>
         <v>19.5</v>
       </c>
       <c r="F169" s="20">
-        <f>SUBTOTAL(9,F163:F168)</f>
+        <f t="shared" si="31"/>
         <v>96</v>
       </c>
       <c r="G169" s="20">
-        <f>SUBTOTAL(9,G163:G168)</f>
+        <f t="shared" si="31"/>
         <v>24950</v>
       </c>
       <c r="H169" s="20">
-        <f>SUBTOTAL(9,H163:H168)</f>
+        <f t="shared" si="31"/>
         <v>24740</v>
       </c>
       <c r="I169" s="20">
-        <f>SUBTOTAL(9,I163:I168)</f>
+        <f t="shared" si="31"/>
         <v>282000</v>
       </c>
       <c r="J169" s="20">
-        <f>SUBTOTAL(9,J163:J168)</f>
+        <f t="shared" si="31"/>
         <v>249</v>
       </c>
       <c r="K169" s="20">
-        <f>SUBTOTAL(9,K163:K168)</f>
+        <f t="shared" si="31"/>
         <v>10180</v>
       </c>
       <c r="L169" s="20">
-        <f>SUBTOTAL(9,L163:L168)</f>
+        <f t="shared" si="31"/>
         <v>12240</v>
       </c>
       <c r="M169" s="20">
-        <f>SUBTOTAL(9,M163:M168)</f>
+        <f t="shared" si="31"/>
         <v>195</v>
       </c>
       <c r="N169" s="20">
-        <f>SUBTOTAL(9,N163:N168)</f>
+        <f t="shared" si="31"/>
         <v>325</v>
       </c>
     </row>
-    <row r="170" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" outlineLevel="2">
       <c r="A170" s="69">
         <v>142</v>
       </c>
@@ -9523,12 +9518,12 @@
         <v>31</v>
       </c>
       <c r="N170" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>52.833333333333336</v>
       </c>
       <c r="O170" s="60"/>
     </row>
-    <row r="171" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" outlineLevel="2">
       <c r="A171" s="69">
         <v>143</v>
       </c>
@@ -9569,12 +9564,12 @@
         <v>28</v>
       </c>
       <c r="N171" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>35.333333333333336</v>
       </c>
       <c r="O171" s="60"/>
     </row>
-    <row r="172" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" outlineLevel="2">
       <c r="A172" s="69">
         <v>144</v>
       </c>
@@ -9615,12 +9610,12 @@
         <v>34</v>
       </c>
       <c r="N172" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>38.5</v>
       </c>
       <c r="O172" s="60"/>
     </row>
-    <row r="173" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" outlineLevel="2">
       <c r="A173" s="69">
         <v>145</v>
       </c>
@@ -9661,12 +9656,12 @@
         <v>26</v>
       </c>
       <c r="N173" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>52.666666666666664</v>
       </c>
       <c r="O173" s="60"/>
     </row>
-    <row r="174" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" outlineLevel="2">
       <c r="A174" s="69">
         <v>146</v>
       </c>
@@ -9707,12 +9702,12 @@
         <v>38</v>
       </c>
       <c r="N174" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>66.999999999999986</v>
       </c>
       <c r="O174" s="60"/>
     </row>
-    <row r="175" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" outlineLevel="2">
       <c r="A175" s="69">
         <v>147</v>
       </c>
@@ -9753,12 +9748,12 @@
         <v>25</v>
       </c>
       <c r="N175" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>54.333333333333336</v>
       </c>
       <c r="O175" s="60"/>
     </row>
-    <row r="176" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" outlineLevel="2">
       <c r="A176" s="69">
         <v>148</v>
       </c>
@@ -9799,12 +9794,12 @@
         <v>16</v>
       </c>
       <c r="N176" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>63.666666666666664</v>
       </c>
       <c r="O176" s="60"/>
     </row>
-    <row r="177" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" outlineLevel="2">
       <c r="A177" s="69">
         <v>149</v>
       </c>
@@ -9845,12 +9840,12 @@
         <v>24</v>
       </c>
       <c r="N177" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>81.333333333333329</v>
       </c>
       <c r="O177" s="60"/>
     </row>
-    <row r="178" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A178" s="17"/>
       <c r="B178" s="16" t="s">
         <v>31</v>
@@ -9858,47 +9853,47 @@
       <c r="C178" s="18"/>
       <c r="D178" s="19"/>
       <c r="E178" s="26">
-        <f>SUBTOTAL(9,E170:E177)</f>
+        <f t="shared" ref="E178:N178" si="32">SUBTOTAL(9,E170:E177)</f>
         <v>26.74</v>
       </c>
       <c r="F178" s="20">
-        <f>SUBTOTAL(9,F170:F177)</f>
+        <f t="shared" si="32"/>
         <v>126</v>
       </c>
       <c r="G178" s="20">
-        <f>SUBTOTAL(9,G170:G177)</f>
+        <f t="shared" si="32"/>
         <v>27350</v>
       </c>
       <c r="H178" s="20">
-        <f>SUBTOTAL(9,H170:H177)</f>
+        <f t="shared" si="32"/>
         <v>29270</v>
       </c>
       <c r="I178" s="20">
-        <f>SUBTOTAL(9,I170:I177)</f>
+        <f t="shared" si="32"/>
         <v>399000</v>
       </c>
       <c r="J178" s="20">
-        <f>SUBTOTAL(9,J170:J177)</f>
+        <f t="shared" si="32"/>
         <v>338</v>
       </c>
       <c r="K178" s="20">
-        <f>SUBTOTAL(9,K170:K177)</f>
+        <f t="shared" si="32"/>
         <v>17790</v>
       </c>
       <c r="L178" s="20">
-        <f>SUBTOTAL(9,L170:L177)</f>
+        <f t="shared" si="32"/>
         <v>19810</v>
       </c>
       <c r="M178" s="20">
-        <f>SUBTOTAL(9,M170:M177)</f>
+        <f t="shared" si="32"/>
         <v>222</v>
       </c>
       <c r="N178" s="20">
-        <f>SUBTOTAL(9,N170:N177)</f>
+        <f t="shared" si="32"/>
         <v>445.66666666666663</v>
       </c>
     </row>
-    <row r="179" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" outlineLevel="2">
       <c r="A179" s="69">
         <v>150</v>
       </c>
@@ -9939,12 +9934,12 @@
         <v>15</v>
       </c>
       <c r="N179" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>84.166666666666671</v>
       </c>
       <c r="O179" s="60"/>
     </row>
-    <row r="180" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" outlineLevel="2">
       <c r="A180" s="69">
         <v>151</v>
       </c>
@@ -9985,12 +9980,12 @@
         <v>31</v>
       </c>
       <c r="N180" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>46.5</v>
       </c>
       <c r="O180" s="60"/>
     </row>
-    <row r="181" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" outlineLevel="2">
       <c r="A181" s="69">
         <v>152</v>
       </c>
@@ -10031,12 +10026,12 @@
         <v>22</v>
       </c>
       <c r="N181" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>57.833333333333336</v>
       </c>
       <c r="O181" s="60"/>
     </row>
-    <row r="182" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" outlineLevel="2">
       <c r="A182" s="69">
         <v>153</v>
       </c>
@@ -10077,12 +10072,12 @@
         <v>28</v>
       </c>
       <c r="N182" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>66.833333333333329</v>
       </c>
       <c r="O182" s="60"/>
     </row>
-    <row r="183" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" outlineLevel="2">
       <c r="A183" s="69">
         <v>154</v>
       </c>
@@ -10123,12 +10118,12 @@
         <v>32</v>
       </c>
       <c r="N183" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>53</v>
       </c>
       <c r="O183" s="60"/>
     </row>
-    <row r="184" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A184" s="17"/>
       <c r="B184" s="16" t="s">
         <v>32</v>
@@ -10136,47 +10131,47 @@
       <c r="C184" s="18"/>
       <c r="D184" s="21"/>
       <c r="E184" s="28">
-        <f>SUBTOTAL(9,E179:E183)</f>
+        <f t="shared" ref="E184:N184" si="33">SUBTOTAL(9,E179:E183)</f>
         <v>18.5</v>
       </c>
       <c r="F184" s="23">
-        <f>SUBTOTAL(9,F179:F183)</f>
+        <f t="shared" si="33"/>
         <v>81</v>
       </c>
       <c r="G184" s="23">
-        <f>SUBTOTAL(9,G179:G183)</f>
+        <f t="shared" si="33"/>
         <v>13570</v>
       </c>
       <c r="H184" s="23">
-        <f>SUBTOTAL(9,H179:H183)</f>
+        <f t="shared" si="33"/>
         <v>14590</v>
       </c>
       <c r="I184" s="23">
-        <f>SUBTOTAL(9,I179:I183)</f>
+        <f t="shared" si="33"/>
         <v>182000</v>
       </c>
       <c r="J184" s="23">
-        <f>SUBTOTAL(9,J179:J183)</f>
+        <f t="shared" si="33"/>
         <v>201</v>
       </c>
       <c r="K184" s="23">
-        <f>SUBTOTAL(9,K179:K183)</f>
+        <f t="shared" si="33"/>
         <v>11310</v>
       </c>
       <c r="L184" s="23">
-        <f>SUBTOTAL(9,L179:L183)</f>
+        <f t="shared" si="33"/>
         <v>13210</v>
       </c>
       <c r="M184" s="23">
-        <f>SUBTOTAL(9,M179:M183)</f>
+        <f t="shared" si="33"/>
         <v>128</v>
       </c>
       <c r="N184" s="20">
-        <f>SUBTOTAL(9,N179:N183)</f>
+        <f t="shared" si="33"/>
         <v>308.33333333333337</v>
       </c>
     </row>
-    <row r="185" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" outlineLevel="2">
       <c r="A185" s="69">
         <v>155</v>
       </c>
@@ -10217,11 +10212,11 @@
         <v>15</v>
       </c>
       <c r="N185" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>52.166666666666664</v>
       </c>
     </row>
-    <row r="186" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" outlineLevel="2">
       <c r="A186" s="69">
         <v>156</v>
       </c>
@@ -10262,12 +10257,12 @@
         <v>28</v>
       </c>
       <c r="N186" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>40.5</v>
       </c>
       <c r="O186" s="60"/>
     </row>
-    <row r="187" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" outlineLevel="2">
       <c r="A187" s="69">
         <v>157</v>
       </c>
@@ -10308,11 +10303,11 @@
         <v>33</v>
       </c>
       <c r="N187" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>51.333333333333336</v>
       </c>
     </row>
-    <row r="188" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A188" s="17"/>
       <c r="B188" s="16" t="s">
         <v>33</v>
@@ -10320,48 +10315,48 @@
       <c r="C188" s="32"/>
       <c r="D188" s="19"/>
       <c r="E188" s="17">
-        <f>SUBTOTAL(9,E185:E187)</f>
+        <f t="shared" ref="E188:N188" si="34">SUBTOTAL(9,E185:E187)</f>
         <v>8.64</v>
       </c>
       <c r="F188" s="17">
-        <f>SUBTOTAL(9,F185:F187)</f>
+        <f t="shared" si="34"/>
         <v>48</v>
       </c>
       <c r="G188" s="17">
-        <f>SUBTOTAL(9,G185:G187)</f>
+        <f t="shared" si="34"/>
         <v>8050</v>
       </c>
       <c r="H188" s="17">
-        <f>SUBTOTAL(9,H185:H187)</f>
+        <f t="shared" si="34"/>
         <v>9460</v>
       </c>
       <c r="I188" s="17">
-        <f>SUBTOTAL(9,I185:I187)</f>
+        <f t="shared" si="34"/>
         <v>83000</v>
       </c>
       <c r="J188" s="17">
-        <f>SUBTOTAL(9,J185:J187)</f>
+        <f t="shared" si="34"/>
         <v>91</v>
       </c>
       <c r="K188" s="17">
-        <f>SUBTOTAL(9,K185:K187)</f>
+        <f t="shared" si="34"/>
         <v>6640</v>
       </c>
       <c r="L188" s="17">
-        <f>SUBTOTAL(9,L185:L187)</f>
+        <f t="shared" si="34"/>
         <v>8080</v>
       </c>
       <c r="M188" s="17">
-        <f>SUBTOTAL(9,M185:M187)</f>
+        <f t="shared" si="34"/>
         <v>76</v>
       </c>
       <c r="N188" s="20">
-        <f>SUBTOTAL(9,N185:N187)</f>
+        <f t="shared" si="34"/>
         <v>144</v>
       </c>
       <c r="O188" s="61"/>
     </row>
-    <row r="189" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" outlineLevel="2">
       <c r="A189" s="69">
         <v>158</v>
       </c>
@@ -10402,11 +10397,11 @@
         <v>11</v>
       </c>
       <c r="N189" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>48.333333333333336</v>
       </c>
     </row>
-    <row r="190" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" outlineLevel="2">
       <c r="A190" s="69">
         <v>159</v>
       </c>
@@ -10447,11 +10442,11 @@
         <v>37</v>
       </c>
       <c r="N190" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
     </row>
-    <row r="191" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A191" s="17"/>
       <c r="B191" s="16" t="s">
         <v>34</v>
@@ -10459,48 +10454,48 @@
       <c r="C191" s="32"/>
       <c r="D191" s="19"/>
       <c r="E191" s="17">
-        <f>SUBTOTAL(9,E189:E190)</f>
+        <f t="shared" ref="E191:N191" si="35">SUBTOTAL(9,E189:E190)</f>
         <v>5.9</v>
       </c>
       <c r="F191" s="17">
-        <f>SUBTOTAL(9,F189:F190)</f>
+        <f t="shared" si="35"/>
         <v>33</v>
       </c>
       <c r="G191" s="17">
-        <f>SUBTOTAL(9,G189:G190)</f>
+        <f t="shared" si="35"/>
         <v>4216</v>
       </c>
       <c r="H191" s="17">
-        <f>SUBTOTAL(9,H189:H190)</f>
+        <f t="shared" si="35"/>
         <v>7140</v>
       </c>
       <c r="I191" s="17">
-        <f>SUBTOTAL(9,I189:I190)</f>
+        <f t="shared" si="35"/>
         <v>46600</v>
       </c>
       <c r="J191" s="17">
-        <f>SUBTOTAL(9,J189:J190)</f>
+        <f t="shared" si="35"/>
         <v>56</v>
       </c>
       <c r="K191" s="17">
-        <f>SUBTOTAL(9,K189:K190)</f>
+        <f t="shared" si="35"/>
         <v>3710</v>
       </c>
       <c r="L191" s="17">
-        <f>SUBTOTAL(9,L189:L190)</f>
+        <f t="shared" si="35"/>
         <v>4790</v>
       </c>
       <c r="M191" s="17">
-        <f>SUBTOTAL(9,M189:M190)</f>
+        <f t="shared" si="35"/>
         <v>48</v>
       </c>
       <c r="N191" s="20">
-        <f>SUBTOTAL(9,N189:N190)</f>
+        <f t="shared" si="35"/>
         <v>98.333333333333343</v>
       </c>
       <c r="O191" s="61"/>
     </row>
-    <row r="192" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" outlineLevel="2">
       <c r="A192" s="69">
         <v>160</v>
       </c>
@@ -10541,11 +10536,11 @@
         <v>22</v>
       </c>
       <c r="N192" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>33.499999999999993</v>
       </c>
     </row>
-    <row r="193" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" outlineLevel="2">
       <c r="A193" s="69">
         <v>161</v>
       </c>
@@ -10586,11 +10581,11 @@
         <v>11</v>
       </c>
       <c r="N193" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>33</v>
       </c>
     </row>
-    <row r="194" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" outlineLevel="2">
       <c r="A194" s="69">
         <v>162</v>
       </c>
@@ -10631,11 +10626,11 @@
         <v>34</v>
       </c>
       <c r="N194" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>45.833333333333336</v>
       </c>
     </row>
-    <row r="195" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A195" s="17"/>
       <c r="B195" s="16" t="s">
         <v>35</v>
@@ -10643,48 +10638,48 @@
       <c r="C195" s="32"/>
       <c r="D195" s="19"/>
       <c r="E195" s="17">
-        <f>SUBTOTAL(9,E192:E194)</f>
+        <f t="shared" ref="E195:N195" si="36">SUBTOTAL(9,E192:E194)</f>
         <v>6.74</v>
       </c>
       <c r="F195" s="17">
-        <f>SUBTOTAL(9,F192:F194)</f>
+        <f t="shared" si="36"/>
         <v>48</v>
       </c>
       <c r="G195" s="17">
-        <f>SUBTOTAL(9,G192:G194)</f>
+        <f t="shared" si="36"/>
         <v>8684</v>
       </c>
       <c r="H195" s="17">
-        <f>SUBTOTAL(9,H192:H194)</f>
+        <f t="shared" si="36"/>
         <v>14658</v>
       </c>
       <c r="I195" s="17">
-        <f>SUBTOTAL(9,I192:I194)</f>
+        <f t="shared" si="36"/>
         <v>79000</v>
       </c>
       <c r="J195" s="17">
-        <f>SUBTOTAL(9,J192:J194)</f>
+        <f t="shared" si="36"/>
         <v>124</v>
       </c>
       <c r="K195" s="17">
-        <f>SUBTOTAL(9,K192:K194)</f>
+        <f t="shared" si="36"/>
         <v>8540</v>
       </c>
       <c r="L195" s="17">
-        <f>SUBTOTAL(9,L192:L194)</f>
+        <f t="shared" si="36"/>
         <v>8740</v>
       </c>
       <c r="M195" s="17">
-        <f>SUBTOTAL(9,M192:M194)</f>
+        <f t="shared" si="36"/>
         <v>67</v>
       </c>
       <c r="N195" s="20">
-        <f>SUBTOTAL(9,N192:N194)</f>
+        <f t="shared" si="36"/>
         <v>112.33333333333334</v>
       </c>
       <c r="O195" s="61"/>
     </row>
-    <row r="196" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" outlineLevel="2">
       <c r="A196" s="69">
         <v>163</v>
       </c>
@@ -10725,11 +10720,11 @@
         <v>6</v>
       </c>
       <c r="N196" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>56.833333333333336</v>
       </c>
     </row>
-    <row r="197" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" outlineLevel="2">
       <c r="A197" s="69">
         <v>164</v>
       </c>
@@ -10770,11 +10765,11 @@
         <v>24</v>
       </c>
       <c r="N197" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>42.5</v>
       </c>
     </row>
-    <row r="198" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" outlineLevel="2">
       <c r="A198" s="69">
         <v>165</v>
       </c>
@@ -10815,11 +10810,11 @@
         <v>20</v>
       </c>
       <c r="N198" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" outlineLevel="2">
       <c r="A199" s="69">
         <v>166</v>
       </c>
@@ -10860,11 +10855,11 @@
         <v>15</v>
       </c>
       <c r="N199" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>35.5</v>
       </c>
     </row>
-    <row r="200" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A200" s="17"/>
       <c r="B200" s="16" t="s">
         <v>36</v>
@@ -10872,48 +10867,48 @@
       <c r="C200" s="32"/>
       <c r="D200" s="19"/>
       <c r="E200" s="17">
-        <f>SUBTOTAL(9,E196:E199)</f>
+        <f t="shared" ref="E200:N200" si="37">SUBTOTAL(9,E196:E199)</f>
         <v>9.83</v>
       </c>
       <c r="F200" s="20">
-        <f>SUBTOTAL(9,F196:F199)</f>
+        <f t="shared" si="37"/>
         <v>63</v>
       </c>
       <c r="G200" s="20">
-        <f>SUBTOTAL(9,G196:G199)</f>
+        <f t="shared" si="37"/>
         <v>7540</v>
       </c>
       <c r="H200" s="17">
-        <f>SUBTOTAL(9,H196:H199)</f>
+        <f t="shared" si="37"/>
         <v>14240</v>
       </c>
       <c r="I200" s="17">
-        <f>SUBTOTAL(9,I196:I199)</f>
+        <f t="shared" si="37"/>
         <v>115000</v>
       </c>
       <c r="J200" s="17">
-        <f>SUBTOTAL(9,J196:J199)</f>
+        <f t="shared" si="37"/>
         <v>189</v>
       </c>
       <c r="K200" s="17">
-        <f>SUBTOTAL(9,K196:K199)</f>
+        <f t="shared" si="37"/>
         <v>11160</v>
       </c>
       <c r="L200" s="17">
-        <f>SUBTOTAL(9,L196:L199)</f>
+        <f t="shared" si="37"/>
         <v>16490</v>
       </c>
       <c r="M200" s="17">
-        <f>SUBTOTAL(9,M196:M199)</f>
+        <f t="shared" si="37"/>
         <v>65</v>
       </c>
       <c r="N200" s="20">
-        <f>SUBTOTAL(9,N196:N199)</f>
+        <f t="shared" si="37"/>
         <v>163.83333333333334</v>
       </c>
       <c r="O200" s="61"/>
     </row>
-    <row r="201" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" outlineLevel="2">
       <c r="A201" s="69">
         <v>167</v>
       </c>
@@ -10954,11 +10949,11 @@
         <v>22</v>
       </c>
       <c r="N201" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>40.5</v>
       </c>
     </row>
-    <row r="202" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" outlineLevel="1">
       <c r="A202" s="69"/>
       <c r="B202" s="16" t="s">
         <v>37</v>
@@ -10966,47 +10961,47 @@
       <c r="C202" s="30"/>
       <c r="D202" s="13"/>
       <c r="E202" s="69">
-        <f>SUBTOTAL(9,E201:E201)</f>
+        <f t="shared" ref="E202:N202" si="38">SUBTOTAL(9,E201:E201)</f>
         <v>2.4300000000000002</v>
       </c>
       <c r="F202" s="14">
-        <f>SUBTOTAL(9,F201:F201)</f>
+        <f t="shared" si="38"/>
         <v>15</v>
       </c>
       <c r="G202" s="14">
-        <f>SUBTOTAL(9,G201:G201)</f>
+        <f t="shared" si="38"/>
         <v>2260</v>
       </c>
       <c r="H202" s="69">
-        <f>SUBTOTAL(9,H201:H201)</f>
+        <f t="shared" si="38"/>
         <v>2780</v>
       </c>
       <c r="I202" s="69">
-        <f>SUBTOTAL(9,I201:I201)</f>
+        <f t="shared" si="38"/>
         <v>28000</v>
       </c>
       <c r="J202" s="69">
-        <f>SUBTOTAL(9,J201:J201)</f>
+        <f t="shared" si="38"/>
         <v>36</v>
       </c>
       <c r="K202" s="69">
-        <f>SUBTOTAL(9,K201:K201)</f>
+        <f t="shared" si="38"/>
         <v>2870</v>
       </c>
       <c r="L202" s="69">
-        <f>SUBTOTAL(9,L201:L201)</f>
+        <f t="shared" si="38"/>
         <v>3640</v>
       </c>
       <c r="M202" s="69">
-        <f>SUBTOTAL(9,M201:M201)</f>
+        <f t="shared" si="38"/>
         <v>22</v>
       </c>
       <c r="N202" s="14">
-        <f>SUBTOTAL(9,N201:N201)</f>
+        <f t="shared" si="38"/>
         <v>40.5</v>
       </c>
     </row>
-    <row r="203" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" outlineLevel="2">
       <c r="A203" s="69">
         <v>168</v>
       </c>
@@ -11047,11 +11042,11 @@
         <v>19</v>
       </c>
       <c r="N203" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>38.666666666666664</v>
       </c>
     </row>
-    <row r="204" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" outlineLevel="2">
       <c r="A204" s="69">
         <v>169</v>
       </c>
@@ -11092,11 +11087,11 @@
         <v>12</v>
       </c>
       <c r="N204" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>62</v>
       </c>
     </row>
-    <row r="205" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>38</v>
@@ -11104,48 +11099,48 @@
       <c r="C205" s="32"/>
       <c r="D205" s="19"/>
       <c r="E205" s="17">
-        <f>SUBTOTAL(9,E203:E204)</f>
+        <f t="shared" ref="E205:N205" si="39">SUBTOTAL(9,E203:E204)</f>
         <v>6.04</v>
       </c>
       <c r="F205" s="17">
-        <f>SUBTOTAL(9,F203:F204)</f>
+        <f t="shared" si="39"/>
         <v>33</v>
       </c>
       <c r="G205" s="17">
-        <f>SUBTOTAL(9,G203:G204)</f>
+        <f t="shared" si="39"/>
         <v>5030</v>
       </c>
       <c r="H205" s="17">
-        <f>SUBTOTAL(9,H203:H204)</f>
+        <f t="shared" si="39"/>
         <v>4330</v>
       </c>
       <c r="I205" s="17">
-        <f>SUBTOTAL(9,I203:I204)</f>
+        <f t="shared" si="39"/>
         <v>45000</v>
       </c>
       <c r="J205" s="17">
-        <f>SUBTOTAL(9,J203:J204)</f>
+        <f t="shared" si="39"/>
         <v>45</v>
       </c>
       <c r="K205" s="17">
-        <f>SUBTOTAL(9,K203:K204)</f>
+        <f t="shared" si="39"/>
         <v>4650</v>
       </c>
       <c r="L205" s="17">
-        <f>SUBTOTAL(9,L203:L204)</f>
+        <f t="shared" si="39"/>
         <v>5700</v>
       </c>
       <c r="M205" s="17">
-        <f>SUBTOTAL(9,M203:M204)</f>
+        <f t="shared" si="39"/>
         <v>31</v>
       </c>
       <c r="N205" s="20">
-        <f>SUBTOTAL(9,N203:N204)</f>
+        <f t="shared" si="39"/>
         <v>100.66666666666666</v>
       </c>
       <c r="O205" s="61"/>
     </row>
-    <row r="206" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" outlineLevel="2">
       <c r="A206" s="69">
         <v>170</v>
       </c>
@@ -11186,11 +11181,11 @@
         <v>14</v>
       </c>
       <c r="N206" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>35.666666666666664</v>
       </c>
     </row>
-    <row r="207" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" outlineLevel="2">
       <c r="A207" s="69">
         <v>171</v>
       </c>
@@ -11231,11 +11226,11 @@
         <v>18</v>
       </c>
       <c r="N207" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>45.666666666666664</v>
       </c>
     </row>
-    <row r="208" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" outlineLevel="2">
       <c r="A208" s="69">
         <v>172</v>
       </c>
@@ -11276,11 +11271,11 @@
         <v>10</v>
       </c>
       <c r="N208" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>43.833333333333336</v>
       </c>
     </row>
-    <row r="209" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" outlineLevel="2">
       <c r="A209" s="69">
         <v>173</v>
       </c>
@@ -11321,11 +11316,11 @@
         <v>6</v>
       </c>
       <c r="N209" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>34.833333333333336</v>
       </c>
     </row>
-    <row r="210" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>45</v>
@@ -11333,48 +11328,48 @@
       <c r="C210" s="32"/>
       <c r="D210" s="19"/>
       <c r="E210" s="17">
-        <f>SUBTOTAL(9,E206:E209)</f>
+        <f t="shared" ref="E210:N210" si="40">SUBTOTAL(9,E206:E209)</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="F210" s="17">
-        <f>SUBTOTAL(9,F206:F209)</f>
+        <f t="shared" si="40"/>
         <v>63</v>
       </c>
       <c r="G210" s="17">
-        <f>SUBTOTAL(9,G206:G209)</f>
+        <f t="shared" si="40"/>
         <v>8410</v>
       </c>
       <c r="H210" s="17">
-        <f>SUBTOTAL(9,H206:H209)</f>
+        <f t="shared" si="40"/>
         <v>9480</v>
       </c>
       <c r="I210" s="17">
-        <f>SUBTOTAL(9,I206:I209)</f>
+        <f t="shared" si="40"/>
         <v>60000</v>
       </c>
       <c r="J210" s="17">
-        <f>SUBTOTAL(9,J206:J209)</f>
+        <f t="shared" si="40"/>
         <v>74</v>
       </c>
       <c r="K210" s="17">
-        <f>SUBTOTAL(9,K206:K209)</f>
+        <f t="shared" si="40"/>
         <v>8380</v>
       </c>
       <c r="L210" s="17">
-        <f>SUBTOTAL(9,L206:L209)</f>
+        <f t="shared" si="40"/>
         <v>9250</v>
       </c>
       <c r="M210" s="17">
-        <f>SUBTOTAL(9,M206:M209)</f>
+        <f t="shared" si="40"/>
         <v>48</v>
       </c>
       <c r="N210" s="20">
-        <f>SUBTOTAL(9,N206:N209)</f>
+        <f t="shared" si="40"/>
         <v>160</v>
       </c>
       <c r="O210" s="61"/>
     </row>
-    <row r="211" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" outlineLevel="2">
       <c r="A211" s="69">
         <v>174</v>
       </c>
@@ -11415,11 +11410,11 @@
         <v>8</v>
       </c>
       <c r="N211" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>44.5</v>
       </c>
     </row>
-    <row r="212" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" outlineLevel="2">
       <c r="A212" s="69">
         <v>175</v>
       </c>
@@ -11460,11 +11455,11 @@
         <v>8</v>
       </c>
       <c r="N212" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>44.5</v>
       </c>
     </row>
-    <row r="213" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" outlineLevel="2">
       <c r="A213" s="69">
         <v>176</v>
       </c>
@@ -11505,11 +11500,11 @@
         <v>5</v>
       </c>
       <c r="N213" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>59.166666666666664</v>
       </c>
     </row>
-    <row r="214" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" outlineLevel="2">
       <c r="A214" s="69">
         <v>177</v>
       </c>
@@ -11550,11 +11545,11 @@
         <v>3</v>
       </c>
       <c r="N214" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>64.833333333333329</v>
       </c>
     </row>
-    <row r="215" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" outlineLevel="2">
       <c r="A215" s="69">
         <v>178</v>
       </c>
@@ -11595,11 +11590,11 @@
         <v>5</v>
       </c>
       <c r="N215" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>59.833333333333336</v>
       </c>
     </row>
-    <row r="216" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" outlineLevel="2">
       <c r="A216" s="69">
         <v>179</v>
       </c>
@@ -11640,11 +11635,11 @@
         <v>7</v>
       </c>
       <c r="N216" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>52.166666666666664</v>
       </c>
     </row>
-    <row r="217" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" outlineLevel="2">
       <c r="A217" s="69">
         <v>180</v>
       </c>
@@ -11685,11 +11680,11 @@
         <v>2</v>
       </c>
       <c r="N217" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>55.5</v>
       </c>
     </row>
-    <row r="218" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" outlineLevel="2">
       <c r="A218" s="69">
         <v>181</v>
       </c>
@@ -11730,11 +11725,11 @@
         <v>7</v>
       </c>
       <c r="N218" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>51.833333333333336</v>
       </c>
     </row>
-    <row r="219" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" outlineLevel="2">
       <c r="A219" s="69">
         <v>182</v>
       </c>
@@ -11775,11 +11770,11 @@
         <v>3</v>
       </c>
       <c r="N219" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>50.666666666666664</v>
       </c>
     </row>
-    <row r="220" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" outlineLevel="2">
       <c r="A220" s="69">
         <v>183</v>
       </c>
@@ -11820,11 +11815,11 @@
         <v>4</v>
       </c>
       <c r="N220" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>53.5</v>
       </c>
     </row>
-    <row r="221" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" outlineLevel="2">
       <c r="A221" s="69">
         <v>184</v>
       </c>
@@ -11865,11 +11860,11 @@
         <v>5</v>
       </c>
       <c r="N221" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>68</v>
       </c>
     </row>
-    <row r="222" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" outlineLevel="2">
       <c r="A222" s="69">
         <v>185</v>
       </c>
@@ -11910,11 +11905,11 @@
         <v>8</v>
       </c>
       <c r="N222" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>54.333333333333336</v>
       </c>
     </row>
-    <row r="223" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" outlineLevel="2">
       <c r="A223" s="69">
         <v>186</v>
       </c>
@@ -11955,11 +11950,11 @@
         <v>10</v>
       </c>
       <c r="N223" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>56</v>
       </c>
     </row>
-    <row r="224" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" outlineLevel="2">
       <c r="A224" s="69">
         <v>187</v>
       </c>
@@ -12000,11 +11995,11 @@
         <v>5</v>
       </c>
       <c r="N224" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>60.333333333333336</v>
       </c>
     </row>
-    <row r="225" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" outlineLevel="2">
       <c r="A225" s="69">
         <v>188</v>
       </c>
@@ -12045,11 +12040,11 @@
         <v>7</v>
       </c>
       <c r="N225" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>71.166666666666671</v>
       </c>
     </row>
-    <row r="226" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" outlineLevel="2">
       <c r="A226" s="69">
         <v>189</v>
       </c>
@@ -12090,11 +12085,11 @@
         <v>5</v>
       </c>
       <c r="N226" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>66.833333333333329</v>
       </c>
     </row>
-    <row r="227" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" outlineLevel="2">
       <c r="A227" s="69">
         <v>190</v>
       </c>
@@ -12135,11 +12130,11 @@
         <v>8</v>
       </c>
       <c r="N227" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>64.666666666666671</v>
       </c>
     </row>
-    <row r="228" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" outlineLevel="2">
       <c r="A228" s="69">
         <v>191</v>
       </c>
@@ -12180,11 +12175,11 @@
         <v>10</v>
       </c>
       <c r="N228" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>77.833333333333329</v>
       </c>
     </row>
-    <row r="229" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>40</v>
@@ -12192,48 +12187,48 @@
       <c r="C229" s="32"/>
       <c r="D229" s="19"/>
       <c r="E229" s="17">
-        <f>SUBTOTAL(9,E211:E228)</f>
+        <f t="shared" ref="E229:N229" si="41">SUBTOTAL(9,E211:E228)</f>
         <v>63.339999999999989</v>
       </c>
       <c r="F229" s="17">
-        <f>SUBTOTAL(9,F211:F228)</f>
+        <f t="shared" si="41"/>
         <v>291</v>
       </c>
       <c r="G229" s="17">
-        <f>SUBTOTAL(9,G211:G228)</f>
+        <f t="shared" si="41"/>
         <v>15330</v>
       </c>
       <c r="H229" s="17">
-        <f>SUBTOTAL(9,H211:H228)</f>
+        <f t="shared" si="41"/>
         <v>17340</v>
       </c>
       <c r="I229" s="17">
-        <f>SUBTOTAL(9,I211:I228)</f>
+        <f t="shared" si="41"/>
         <v>70000</v>
       </c>
       <c r="J229" s="17">
-        <f>SUBTOTAL(9,J211:J228)</f>
+        <f t="shared" si="41"/>
         <v>248</v>
       </c>
       <c r="K229" s="17">
-        <f>SUBTOTAL(9,K211:K228)</f>
+        <f t="shared" si="41"/>
         <v>21340</v>
       </c>
       <c r="L229" s="17">
-        <f>SUBTOTAL(9,L211:L228)</f>
+        <f t="shared" si="41"/>
         <v>24640</v>
       </c>
       <c r="M229" s="17">
-        <f>SUBTOTAL(9,M211:M228)</f>
+        <f t="shared" si="41"/>
         <v>110</v>
       </c>
       <c r="N229" s="20">
-        <f>SUBTOTAL(9,N211:N228)</f>
+        <f t="shared" si="41"/>
         <v>1055.6666666666667</v>
       </c>
       <c r="O229" s="61"/>
     </row>
-    <row r="230" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" outlineLevel="2">
       <c r="A230" s="69">
         <v>192</v>
       </c>
@@ -12274,11 +12269,11 @@
         <v>11</v>
       </c>
       <c r="N230" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>58.833333333333336</v>
       </c>
     </row>
-    <row r="231" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" outlineLevel="2">
       <c r="A231" s="69">
         <v>193</v>
       </c>
@@ -12319,11 +12314,11 @@
         <v>14</v>
       </c>
       <c r="N231" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>67.833333333333343</v>
       </c>
     </row>
-    <row r="232" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" outlineLevel="2">
       <c r="A232" s="69">
         <v>194</v>
       </c>
@@ -12364,11 +12359,11 @@
         <v>12</v>
       </c>
       <c r="N232" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>65.5</v>
       </c>
     </row>
-    <row r="233" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" outlineLevel="2">
       <c r="A233" s="69">
         <v>195</v>
       </c>
@@ -12409,11 +12404,11 @@
         <v>8</v>
       </c>
       <c r="N233" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>43.166666666666664</v>
       </c>
     </row>
-    <row r="234" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" outlineLevel="2">
       <c r="A234" s="69">
         <v>196</v>
       </c>
@@ -12454,11 +12449,11 @@
         <v>5</v>
       </c>
       <c r="N234" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>63.5</v>
       </c>
     </row>
-    <row r="235" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" outlineLevel="2">
       <c r="A235" s="69">
         <v>197</v>
       </c>
@@ -12499,11 +12494,11 @@
         <v>9</v>
       </c>
       <c r="N235" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>55</v>
       </c>
     </row>
-    <row r="236" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" outlineLevel="2">
       <c r="A236" s="69">
         <v>198</v>
       </c>
@@ -12544,11 +12539,11 @@
         <v>5</v>
       </c>
       <c r="N236" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>64</v>
       </c>
     </row>
-    <row r="237" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" outlineLevel="2">
       <c r="A237" s="69">
         <v>199</v>
       </c>
@@ -12589,11 +12584,11 @@
         <v>14</v>
       </c>
       <c r="N237" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>68.333333333333329</v>
       </c>
     </row>
-    <row r="238" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>29</v>
@@ -12601,48 +12596,48 @@
       <c r="C238" s="32"/>
       <c r="D238" s="19"/>
       <c r="E238" s="17">
-        <f>SUBTOTAL(9,E230:E237)</f>
+        <f t="shared" ref="E238:N238" si="42">SUBTOTAL(9,E230:E237)</f>
         <v>29.17</v>
       </c>
       <c r="F238" s="17">
-        <f>SUBTOTAL(9,F230:F237)</f>
+        <f t="shared" si="42"/>
         <v>129</v>
       </c>
       <c r="G238" s="17">
-        <f>SUBTOTAL(9,G230:G237)</f>
+        <f t="shared" si="42"/>
         <v>20340</v>
       </c>
       <c r="H238" s="17">
-        <f>SUBTOTAL(9,H230:H237)</f>
+        <f t="shared" si="42"/>
         <v>20730</v>
       </c>
       <c r="I238" s="17">
-        <f>SUBTOTAL(9,I230:I237)</f>
+        <f t="shared" si="42"/>
         <v>128000</v>
       </c>
       <c r="J238" s="17">
-        <f>SUBTOTAL(9,J230:J237)</f>
+        <f t="shared" si="42"/>
         <v>151</v>
       </c>
       <c r="K238" s="17">
-        <f>SUBTOTAL(9,K230:K237)</f>
+        <f t="shared" si="42"/>
         <v>23110</v>
       </c>
       <c r="L238" s="17">
-        <f>SUBTOTAL(9,L230:L237)</f>
+        <f t="shared" si="42"/>
         <v>25050</v>
       </c>
       <c r="M238" s="17">
-        <f>SUBTOTAL(9,M230:M237)</f>
+        <f t="shared" si="42"/>
         <v>78</v>
       </c>
       <c r="N238" s="20">
-        <f>SUBTOTAL(9,N230:N237)</f>
+        <f t="shared" si="42"/>
         <v>486.16666666666669</v>
       </c>
       <c r="O238" s="61"/>
     </row>
-    <row r="239" spans="1:15" s="72" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" s="72" customFormat="1" outlineLevel="2">
       <c r="A239" s="69">
         <v>200</v>
       </c>
@@ -12683,12 +12678,12 @@
         <v>12</v>
       </c>
       <c r="N239" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>68.333333333333329</v>
       </c>
       <c r="O239" s="73"/>
     </row>
-    <row r="240" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" outlineLevel="2">
       <c r="A240" s="69">
         <v>201</v>
       </c>
@@ -12729,11 +12724,11 @@
         <v>8</v>
       </c>
       <c r="N240" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>42</v>
       </c>
     </row>
-    <row r="241" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" outlineLevel="2">
       <c r="A241" s="69">
         <v>202</v>
       </c>
@@ -12772,11 +12767,11 @@
         <v>7</v>
       </c>
       <c r="N241" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>32.5</v>
       </c>
     </row>
-    <row r="242" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>30</v>
@@ -12784,48 +12779,48 @@
       <c r="C242" s="17"/>
       <c r="D242" s="19"/>
       <c r="E242" s="17">
-        <f>SUBTOTAL(9,E239:E241)</f>
+        <f t="shared" ref="E242:N242" si="43">SUBTOTAL(9,E239:E241)</f>
         <v>8.5699999999999985</v>
       </c>
       <c r="F242" s="17">
-        <f>SUBTOTAL(9,F239:F241)</f>
+        <f t="shared" si="43"/>
         <v>48</v>
       </c>
       <c r="G242" s="17">
-        <f>SUBTOTAL(9,G239:G241)</f>
+        <f t="shared" si="43"/>
         <v>9440</v>
       </c>
       <c r="H242" s="17">
-        <f>SUBTOTAL(9,H239:H241)</f>
+        <f t="shared" si="43"/>
         <v>8660</v>
       </c>
       <c r="I242" s="17">
-        <f>SUBTOTAL(9,I239:I241)</f>
+        <f t="shared" si="43"/>
         <v>64000</v>
       </c>
       <c r="J242" s="17">
-        <f>SUBTOTAL(9,J239:J241)</f>
+        <f t="shared" si="43"/>
         <v>60</v>
       </c>
       <c r="K242" s="17">
-        <f>SUBTOTAL(9,K239:K241)</f>
+        <f t="shared" si="43"/>
         <v>8530</v>
       </c>
       <c r="L242" s="17">
-        <f>SUBTOTAL(9,L239:L241)</f>
+        <f t="shared" si="43"/>
         <v>9440</v>
       </c>
       <c r="M242" s="17">
-        <f>SUBTOTAL(9,M239:M241)</f>
+        <f t="shared" si="43"/>
         <v>27</v>
       </c>
       <c r="N242" s="20">
-        <f>SUBTOTAL(9,N239:N241)</f>
+        <f t="shared" si="43"/>
         <v>142.83333333333331</v>
       </c>
       <c r="O242" s="61"/>
     </row>
-    <row r="243" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" outlineLevel="2">
       <c r="A243" s="69">
         <v>203</v>
       </c>
@@ -12864,11 +12859,11 @@
         <v>18</v>
       </c>
       <c r="N243" s="14">
-        <f t="shared" ref="N243:N256" si="6">SUM((E243*500)/30)</f>
+        <f t="shared" ref="N243:N256" si="44">SUM((E243*500)/30)</f>
         <v>59.666666666666664</v>
       </c>
     </row>
-    <row r="244" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" outlineLevel="2">
       <c r="A244" s="69">
         <v>204</v>
       </c>
@@ -12907,11 +12902,11 @@
         <v>11</v>
       </c>
       <c r="N244" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" outlineLevel="2">
       <c r="A245" s="69">
         <v>205</v>
       </c>
@@ -12950,11 +12945,11 @@
         <v>22</v>
       </c>
       <c r="N245" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="44"/>
         <v>60.5</v>
       </c>
     </row>
-    <row r="246" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" outlineLevel="2">
       <c r="A246" s="69">
         <v>206</v>
       </c>
@@ -12993,11 +12988,11 @@
         <v>13</v>
       </c>
       <c r="N246" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="44"/>
         <v>36.833333333333336</v>
       </c>
     </row>
-    <row r="247" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" outlineLevel="2">
       <c r="A247" s="69">
         <v>207</v>
       </c>
@@ -13036,11 +13031,11 @@
         <v>21</v>
       </c>
       <c r="N247" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="44"/>
         <v>67.333333333333329</v>
       </c>
     </row>
-    <row r="248" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>31</v>
@@ -13048,48 +13043,48 @@
       <c r="C248" s="17"/>
       <c r="D248" s="19"/>
       <c r="E248" s="17">
-        <f>SUBTOTAL(9,E243:E247)</f>
+        <f t="shared" ref="E248:N248" si="45">SUBTOTAL(9,E243:E247)</f>
         <v>14.96</v>
       </c>
       <c r="F248" s="17">
-        <f>SUBTOTAL(9,F243:F247)</f>
+        <f t="shared" si="45"/>
         <v>81</v>
       </c>
       <c r="G248" s="17">
-        <f>SUBTOTAL(9,G243:G247)</f>
+        <f t="shared" si="45"/>
         <v>13350</v>
       </c>
       <c r="H248" s="17">
-        <f>SUBTOTAL(9,H243:H247)</f>
+        <f t="shared" si="45"/>
         <v>12260</v>
       </c>
       <c r="I248" s="17">
-        <f>SUBTOTAL(9,I243:I247)</f>
+        <f t="shared" si="45"/>
         <v>89000</v>
       </c>
       <c r="J248" s="17">
-        <f>SUBTOTAL(9,J243:J247)</f>
+        <f t="shared" si="45"/>
         <v>122</v>
       </c>
       <c r="K248" s="17">
-        <f>SUBTOTAL(9,K243:K247)</f>
+        <f t="shared" si="45"/>
         <v>11680</v>
       </c>
       <c r="L248" s="17">
-        <f>SUBTOTAL(9,L243:L247)</f>
+        <f t="shared" si="45"/>
         <v>13650</v>
       </c>
       <c r="M248" s="17">
-        <f>SUBTOTAL(9,M243:M247)</f>
+        <f t="shared" si="45"/>
         <v>85</v>
       </c>
       <c r="N248" s="20">
-        <f>SUBTOTAL(9,N243:N247)</f>
+        <f t="shared" si="45"/>
         <v>249.33333333333331</v>
       </c>
       <c r="O248" s="61"/>
     </row>
-    <row r="249" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" outlineLevel="2">
       <c r="A249" s="69">
         <v>208</v>
       </c>
@@ -13128,11 +13123,11 @@
         <v>14</v>
       </c>
       <c r="N249" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="44"/>
         <v>64.5</v>
       </c>
     </row>
-    <row r="250" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" outlineLevel="2">
       <c r="A250" s="69">
         <v>209</v>
       </c>
@@ -13171,11 +13166,11 @@
         <v>9</v>
       </c>
       <c r="N250" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="44"/>
         <v>61.333333333333336</v>
       </c>
     </row>
-    <row r="251" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" outlineLevel="2">
       <c r="A251" s="69">
         <v>210</v>
       </c>
@@ -13214,11 +13209,11 @@
         <v>6</v>
       </c>
       <c r="N251" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="44"/>
         <v>36.166666666666664</v>
       </c>
     </row>
-    <row r="252" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" outlineLevel="2">
       <c r="A252" s="69">
         <v>211</v>
       </c>
@@ -13257,11 +13252,11 @@
         <v>13</v>
       </c>
       <c r="N252" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="44"/>
         <v>35</v>
       </c>
     </row>
-    <row r="253" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" outlineLevel="2">
       <c r="A253" s="69">
         <v>212</v>
       </c>
@@ -13300,11 +13295,11 @@
         <v>11</v>
       </c>
       <c r="N253" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="44"/>
         <v>61.666666666666664</v>
       </c>
     </row>
-    <row r="254" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" outlineLevel="2">
       <c r="A254" s="69">
         <v>213</v>
       </c>
@@ -13343,11 +13338,11 @@
         <v>6</v>
       </c>
       <c r="N254" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="44"/>
         <v>56.5</v>
       </c>
     </row>
-    <row r="255" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" outlineLevel="2">
       <c r="A255" s="69">
         <v>214</v>
       </c>
@@ -13386,11 +13381,11 @@
         <v>8</v>
       </c>
       <c r="N255" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="44"/>
         <v>52.333333333333336</v>
       </c>
     </row>
-    <row r="256" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" outlineLevel="2">
       <c r="A256" s="69">
         <v>215</v>
       </c>
@@ -13429,11 +13424,11 @@
         <v>5</v>
       </c>
       <c r="N256" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="44"/>
         <v>59</v>
       </c>
     </row>
-    <row r="257" spans="1:15" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" s="62" customFormat="1" outlineLevel="1">
       <c r="A257" s="17"/>
       <c r="B257" s="17" t="s">
         <v>32</v>
@@ -13441,48 +13436,48 @@
       <c r="C257" s="17"/>
       <c r="D257" s="19"/>
       <c r="E257" s="17">
-        <f>SUBTOTAL(9,E249:E256)</f>
+        <f t="shared" ref="E257:N257" si="46">SUBTOTAL(9,E249:E256)</f>
         <v>25.59</v>
       </c>
       <c r="F257" s="17">
-        <f>SUBTOTAL(9,F249:F256)</f>
+        <f t="shared" si="46"/>
         <v>129</v>
       </c>
       <c r="G257" s="17">
-        <f>SUBTOTAL(9,G249:G256)</f>
+        <f t="shared" si="46"/>
         <v>19050</v>
       </c>
       <c r="H257" s="17">
-        <f>SUBTOTAL(9,H249:H256)</f>
+        <f t="shared" si="46"/>
         <v>17320</v>
       </c>
       <c r="I257" s="17">
-        <f>SUBTOTAL(9,I249:I256)</f>
+        <f t="shared" si="46"/>
         <v>146000</v>
       </c>
       <c r="J257" s="17">
-        <f>SUBTOTAL(9,J249:J256)</f>
+        <f t="shared" si="46"/>
         <v>233</v>
       </c>
       <c r="K257" s="17">
-        <f>SUBTOTAL(9,K249:K256)</f>
+        <f t="shared" si="46"/>
         <v>15820</v>
       </c>
       <c r="L257" s="17">
-        <f>SUBTOTAL(9,L249:L256)</f>
+        <f t="shared" si="46"/>
         <v>18630</v>
       </c>
       <c r="M257" s="17">
-        <f>SUBTOTAL(9,M249:M256)</f>
+        <f t="shared" si="46"/>
         <v>72</v>
       </c>
       <c r="N257" s="20">
-        <f>SUBTOTAL(9,N249:N256)</f>
+        <f t="shared" si="46"/>
         <v>426.5</v>
       </c>
       <c r="O257" s="61"/>
     </row>
-    <row r="258" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" s="67" customFormat="1">
       <c r="A258" s="31"/>
       <c r="B258" s="31" t="s">
         <v>41</v>
@@ -13490,151 +13485,151 @@
       <c r="C258" s="31"/>
       <c r="D258" s="70"/>
       <c r="E258" s="31">
-        <f>SUBTOTAL(9,E3:E256)</f>
+        <f t="shared" ref="E258:N258" si="47">SUBTOTAL(9,E3:E256)</f>
         <v>704.43999999999983</v>
       </c>
       <c r="F258" s="31">
-        <f>SUBTOTAL(9,F3:F256)</f>
+        <f t="shared" si="47"/>
         <v>3377</v>
       </c>
       <c r="G258" s="31">
-        <f>SUBTOTAL(9,G3:G256)</f>
+        <f t="shared" si="47"/>
         <v>463600</v>
       </c>
       <c r="H258" s="31">
-        <f>SUBTOTAL(9,H3:H256)</f>
+        <f t="shared" si="47"/>
         <v>555067</v>
       </c>
       <c r="I258" s="31">
-        <f>SUBTOTAL(9,I3:I256)</f>
+        <f t="shared" si="47"/>
         <v>9567600</v>
       </c>
       <c r="J258" s="31">
-        <f>SUBTOTAL(9,J3:J256)</f>
+        <f t="shared" si="47"/>
         <v>7411</v>
       </c>
       <c r="K258" s="31">
-        <f>SUBTOTAL(9,K3:K256)</f>
+        <f t="shared" si="47"/>
         <v>350847</v>
       </c>
       <c r="L258" s="31">
-        <f>SUBTOTAL(9,L3:L256)</f>
+        <f t="shared" si="47"/>
         <v>452509</v>
       </c>
       <c r="M258" s="31">
-        <f>SUBTOTAL(9,M3:M256)</f>
+        <f t="shared" si="47"/>
         <v>3287.6</v>
       </c>
       <c r="N258" s="71">
-        <f>SUBTOTAL(9,N3:N256)</f>
+        <f t="shared" si="47"/>
         <v>8108.9999999999973</v>
       </c>
       <c r="O258" s="68"/>
     </row>
-    <row r="259" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="260" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="261" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="262" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="263" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="264" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="265" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="266" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="267" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="268" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="269" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="270" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="271" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="272" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="273" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="274" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="275" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="276" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="277" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="278" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="279" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="280" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="281" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="282" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="283" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="284" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="285" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="286" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="287" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="288" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="289" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="290" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="291" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="292" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="293" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="294" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="295" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="296" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="297" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="298" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="299" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="300" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="301" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="302" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="303" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="304" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="305" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="306" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="307" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="308" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="309" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="310" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="311" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="312" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="313" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="314" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="315" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="316" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="317" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="318" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="319" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="320" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="321" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="322" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="323" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="324" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="325" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="326" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="327" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="328" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="329" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="330" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="331" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="332" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="333" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="334" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="335" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="336" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="337" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="338" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="339" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="340" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="341" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="342" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="343" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="344" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="345" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="346" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="347" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="348" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="349" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="350" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="351" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="352" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="353" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="354" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="355" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="356" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="357" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="358" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="359" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="360" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="361" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="362" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" outlineLevel="1"/>
+    <row r="260" spans="1:15" outlineLevel="1"/>
+    <row r="261" spans="1:15" outlineLevel="1"/>
+    <row r="262" spans="1:15" outlineLevel="1"/>
+    <row r="263" spans="1:15" outlineLevel="1"/>
+    <row r="264" spans="1:15" outlineLevel="1"/>
+    <row r="265" spans="1:15" outlineLevel="1"/>
+    <row r="266" spans="1:15" outlineLevel="1"/>
+    <row r="267" spans="1:15" outlineLevel="1"/>
+    <row r="268" spans="1:15" outlineLevel="1"/>
+    <row r="269" spans="1:15" outlineLevel="1"/>
+    <row r="270" spans="1:15" outlineLevel="1"/>
+    <row r="271" spans="1:15" outlineLevel="1"/>
+    <row r="272" spans="1:15" outlineLevel="1"/>
+    <row r="273" outlineLevel="1"/>
+    <row r="274" outlineLevel="1"/>
+    <row r="275" outlineLevel="1"/>
+    <row r="276" outlineLevel="1"/>
+    <row r="277" outlineLevel="1"/>
+    <row r="278" outlineLevel="1"/>
+    <row r="279" outlineLevel="1"/>
+    <row r="280" outlineLevel="1"/>
+    <row r="281" outlineLevel="1"/>
+    <row r="282" outlineLevel="1"/>
+    <row r="283" outlineLevel="1"/>
+    <row r="284" outlineLevel="1"/>
+    <row r="285" outlineLevel="1"/>
+    <row r="286" outlineLevel="1"/>
+    <row r="287" outlineLevel="1"/>
+    <row r="288" outlineLevel="1"/>
+    <row r="289" outlineLevel="1"/>
+    <row r="290" outlineLevel="1"/>
+    <row r="291" outlineLevel="1"/>
+    <row r="292" outlineLevel="1"/>
+    <row r="293" outlineLevel="1"/>
+    <row r="294" outlineLevel="1"/>
+    <row r="295" outlineLevel="1"/>
+    <row r="296" outlineLevel="1"/>
+    <row r="297" outlineLevel="1"/>
+    <row r="298" outlineLevel="1"/>
+    <row r="299" outlineLevel="1"/>
+    <row r="300" outlineLevel="1"/>
+    <row r="301" outlineLevel="1"/>
+    <row r="302" outlineLevel="1"/>
+    <row r="303" outlineLevel="1"/>
+    <row r="304" outlineLevel="1"/>
+    <row r="305" outlineLevel="1"/>
+    <row r="306" outlineLevel="1"/>
+    <row r="307" outlineLevel="1"/>
+    <row r="308" outlineLevel="1"/>
+    <row r="309" outlineLevel="1"/>
+    <row r="310" outlineLevel="1"/>
+    <row r="311" outlineLevel="1"/>
+    <row r="312" outlineLevel="1"/>
+    <row r="313" outlineLevel="1"/>
+    <row r="314" outlineLevel="1"/>
+    <row r="315" outlineLevel="1"/>
+    <row r="316" outlineLevel="1"/>
+    <row r="317" outlineLevel="1"/>
+    <row r="318" outlineLevel="1"/>
+    <row r="319" outlineLevel="1"/>
+    <row r="320" outlineLevel="1"/>
+    <row r="321" outlineLevel="1"/>
+    <row r="322" outlineLevel="1"/>
+    <row r="323" outlineLevel="1"/>
+    <row r="324" outlineLevel="1"/>
+    <row r="325" outlineLevel="1"/>
+    <row r="326" outlineLevel="1"/>
+    <row r="327" outlineLevel="1"/>
+    <row r="328" outlineLevel="1"/>
+    <row r="329" outlineLevel="1"/>
+    <row r="330" outlineLevel="1"/>
+    <row r="331" outlineLevel="1"/>
+    <row r="332" outlineLevel="1"/>
+    <row r="333" outlineLevel="1"/>
+    <row r="334" outlineLevel="1"/>
+    <row r="335" outlineLevel="1"/>
+    <row r="336" outlineLevel="1"/>
+    <row r="337" outlineLevel="1"/>
+    <row r="338" outlineLevel="1"/>
+    <row r="339" outlineLevel="1"/>
+    <row r="340" outlineLevel="1"/>
+    <row r="341" outlineLevel="1"/>
+    <row r="342" outlineLevel="1"/>
+    <row r="343" outlineLevel="1"/>
+    <row r="344" outlineLevel="1"/>
+    <row r="345" outlineLevel="1"/>
+    <row r="346" outlineLevel="1"/>
+    <row r="347" outlineLevel="1"/>
+    <row r="348" outlineLevel="1"/>
+    <row r="349" outlineLevel="1"/>
+    <row r="350" outlineLevel="1"/>
+    <row r="351" outlineLevel="1"/>
+    <row r="352" outlineLevel="1"/>
+    <row r="353" spans="1:14" outlineLevel="1"/>
+    <row r="354" spans="1:14" outlineLevel="1"/>
+    <row r="355" spans="1:14" outlineLevel="1"/>
+    <row r="356" spans="1:14" outlineLevel="1"/>
+    <row r="357" spans="1:14" outlineLevel="1"/>
+    <row r="358" spans="1:14" outlineLevel="1"/>
+    <row r="359" spans="1:14" outlineLevel="1"/>
+    <row r="360" spans="1:14" outlineLevel="1"/>
+    <row r="361" spans="1:14" outlineLevel="1"/>
+    <row r="362" spans="1:14" outlineLevel="1">
       <c r="A362" s="60">
         <f>SUBTOTAL(9,A3:A361)</f>
         <v>23220</v>
@@ -13643,43 +13638,43 @@
         <v>41</v>
       </c>
       <c r="E362" s="66">
-        <f>SUBTOTAL(9,E3:E361)</f>
+        <f t="shared" ref="E362:N362" si="48">SUBTOTAL(9,E3:E361)</f>
         <v>704.43999999999983</v>
       </c>
       <c r="F362" s="59">
-        <f>SUBTOTAL(9,F3:F361)</f>
+        <f t="shared" si="48"/>
         <v>3377</v>
       </c>
       <c r="G362" s="59">
-        <f>SUBTOTAL(9,G3:G361)</f>
+        <f t="shared" si="48"/>
         <v>463600</v>
       </c>
       <c r="H362" s="59">
-        <f>SUBTOTAL(9,H3:H361)</f>
+        <f t="shared" si="48"/>
         <v>555067</v>
       </c>
       <c r="I362" s="59">
-        <f>SUBTOTAL(9,I3:I361)</f>
+        <f t="shared" si="48"/>
         <v>9567600</v>
       </c>
       <c r="J362" s="59">
-        <f>SUBTOTAL(9,J3:J361)</f>
+        <f t="shared" si="48"/>
         <v>7411</v>
       </c>
       <c r="K362" s="59">
-        <f>SUBTOTAL(9,K3:K361)</f>
+        <f t="shared" si="48"/>
         <v>350847</v>
       </c>
       <c r="L362" s="59">
-        <f>SUBTOTAL(9,L3:L361)</f>
+        <f t="shared" si="48"/>
         <v>452509</v>
       </c>
       <c r="M362" s="59">
-        <f>SUBTOTAL(9,M3:M361)</f>
+        <f t="shared" si="48"/>
         <v>3287.6</v>
       </c>
       <c r="N362" s="59">
-        <f>SUBTOTAL(9,N3:N361)</f>
+        <f t="shared" si="48"/>
         <v>8108.9999999999973</v>
       </c>
     </row>
@@ -13712,6 +13707,11 @@
     <brk id="231" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13723,7 +13723,7 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" style="60" bestFit="1" customWidth="1"/>
@@ -13739,23 +13739,23 @@
     <col min="16" max="16384" width="10.83203125" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="145" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-    </row>
-    <row r="2" spans="1:15" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="145" customHeight="1">
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+    </row>
+    <row r="2" spans="1:15" s="74" customFormat="1">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -13800,7 +13800,7 @@
       </c>
       <c r="O2" s="75"/>
     </row>
-    <row r="3" spans="1:15" s="72" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="72" customFormat="1" outlineLevel="2">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -13846,7 +13846,7 @@
       </c>
       <c r="O3" s="73"/>
     </row>
-    <row r="4" spans="1:15" s="72" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="72" customFormat="1" outlineLevel="2">
       <c r="A4" s="69">
         <v>2</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>26.333333333333332</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="74" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="74" customFormat="1" outlineLevel="1">
       <c r="A5" s="17"/>
       <c r="B5" s="33" t="s">
         <v>37</v>
@@ -13899,47 +13899,47 @@
       <c r="C5" s="34"/>
       <c r="D5" s="19"/>
       <c r="E5" s="17">
-        <f>SUBTOTAL(9,E3:E4)</f>
+        <f t="shared" ref="E5:N5" si="0">SUBTOTAL(9,E3:E4)</f>
         <v>3.37</v>
       </c>
       <c r="F5" s="17">
-        <f>SUBTOTAL(9,F3:F4)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G5" s="17">
-        <f>SUBTOTAL(9,G3:G4)</f>
+        <f t="shared" si="0"/>
         <v>11490</v>
       </c>
       <c r="H5" s="17">
-        <f>SUBTOTAL(9,H3:H4)</f>
+        <f t="shared" si="0"/>
         <v>17310</v>
       </c>
       <c r="I5" s="17">
-        <f>SUBTOTAL(9,I3:I4)</f>
+        <f t="shared" si="0"/>
         <v>37300</v>
       </c>
       <c r="J5" s="17">
-        <f>SUBTOTAL(9,J3:J4)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="K5" s="17">
-        <f>SUBTOTAL(9,K3:K4)</f>
+        <f t="shared" si="0"/>
         <v>8730</v>
       </c>
       <c r="L5" s="17">
-        <f>SUBTOTAL(9,L3:L4)</f>
+        <f t="shared" si="0"/>
         <v>32300</v>
       </c>
       <c r="M5" s="17">
-        <f>SUBTOTAL(9,M3:M4)</f>
+        <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="N5" s="20">
-        <f>SUBTOTAL(9,N3:N4)</f>
+        <f t="shared" si="0"/>
         <v>56.166666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="76" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="76" customFormat="1" ht="16" outlineLevel="2">
       <c r="A6" s="69">
         <v>3</v>
       </c>
@@ -13980,11 +13980,11 @@
         <v>0</v>
       </c>
       <c r="N6" s="14">
-        <f t="shared" ref="N6:N18" si="0">SUM((E6*500)/30)</f>
+        <f t="shared" ref="N6:N16" si="1">SUM((E6*500)/30)</f>
         <v>38.666666666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="72" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="72" customFormat="1" outlineLevel="2">
       <c r="A7" s="69">
         <v>4</v>
       </c>
@@ -14025,11 +14025,11 @@
         <v>0</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="72" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="72" customFormat="1" outlineLevel="2">
       <c r="A8" s="69">
         <v>5</v>
       </c>
@@ -14070,11 +14070,11 @@
         <v>0</v>
       </c>
       <c r="N8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.166666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="74" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="74" customFormat="1" outlineLevel="1">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>38</v>
@@ -14082,47 +14082,47 @@
       <c r="C9" s="34"/>
       <c r="D9" s="19"/>
       <c r="E9" s="17">
-        <f>SUBTOTAL(9,E6:E8)</f>
+        <f t="shared" ref="E9:N9" si="2">SUBTOTAL(9,E6:E8)</f>
         <v>7.49</v>
       </c>
       <c r="F9" s="17">
-        <f>SUBTOTAL(9,F6:F8)</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="G9" s="17">
-        <f>SUBTOTAL(9,G6:G8)</f>
+        <f t="shared" si="2"/>
         <v>24770</v>
       </c>
       <c r="H9" s="17">
-        <f>SUBTOTAL(9,H6:H8)</f>
+        <f t="shared" si="2"/>
         <v>20190</v>
       </c>
       <c r="I9" s="17">
-        <f>SUBTOTAL(9,I6:I8)</f>
+        <f t="shared" si="2"/>
         <v>41000</v>
       </c>
       <c r="J9" s="17">
-        <f>SUBTOTAL(9,J6:J8)</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="K9" s="17">
-        <f>SUBTOTAL(9,K6:K8)</f>
+        <f t="shared" si="2"/>
         <v>19750</v>
       </c>
       <c r="L9" s="17">
-        <f>SUBTOTAL(9,L6:L8)</f>
+        <f t="shared" si="2"/>
         <v>38770</v>
       </c>
       <c r="M9" s="17">
-        <f>SUBTOTAL(9,M6:M8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9" s="20">
-        <f>SUBTOTAL(9,N6:N8)</f>
+        <f t="shared" si="2"/>
         <v>124.83333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="72" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="72" customFormat="1" outlineLevel="2">
       <c r="A10" s="69">
         <v>6</v>
       </c>
@@ -14163,11 +14163,11 @@
         <v>0</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="74" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="74" customFormat="1" outlineLevel="1">
       <c r="A11" s="17"/>
       <c r="B11" s="17" t="s">
         <v>39</v>
@@ -14175,47 +14175,47 @@
       <c r="C11" s="34"/>
       <c r="D11" s="19"/>
       <c r="E11" s="17">
-        <f>SUBTOTAL(9,E10:E10)</f>
+        <f t="shared" ref="E11:N11" si="3">SUBTOTAL(9,E10:E10)</f>
         <v>1.71</v>
       </c>
       <c r="F11" s="17">
-        <f>SUBTOTAL(9,F10:F10)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="G11" s="17">
-        <f>SUBTOTAL(9,G10:G10)</f>
+        <f t="shared" si="3"/>
         <v>8210</v>
       </c>
       <c r="H11" s="17">
-        <f>SUBTOTAL(9,H10:H10)</f>
+        <f t="shared" si="3"/>
         <v>10340</v>
       </c>
       <c r="I11" s="17">
-        <f>SUBTOTAL(9,I10:I10)</f>
+        <f t="shared" si="3"/>
         <v>14000</v>
       </c>
       <c r="J11" s="17">
-        <f>SUBTOTAL(9,J10:J10)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="K11" s="17">
-        <f>SUBTOTAL(9,K10:K10)</f>
+        <f t="shared" si="3"/>
         <v>9560</v>
       </c>
       <c r="L11" s="17">
-        <f>SUBTOTAL(9,L10:L10)</f>
+        <f t="shared" si="3"/>
         <v>13470</v>
       </c>
       <c r="M11" s="17">
-        <f>SUBTOTAL(9,M10:M10)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N11" s="20">
-        <f>SUBTOTAL(9,N10:N10)</f>
+        <f t="shared" si="3"/>
         <v>28.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="74" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="74" customFormat="1" outlineLevel="2">
       <c r="A12" s="69">
         <v>7</v>
       </c>
@@ -14256,11 +14256,11 @@
         <v>0</v>
       </c>
       <c r="N12" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30.333333333333332</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="77" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="77" customFormat="1" outlineLevel="2">
       <c r="A13" s="69">
         <v>8</v>
       </c>
@@ -14301,11 +14301,11 @@
         <v>0</v>
       </c>
       <c r="N13" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="74" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="74" customFormat="1" outlineLevel="1">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>40</v>
@@ -14313,47 +14313,47 @@
       <c r="C14" s="34"/>
       <c r="D14" s="19"/>
       <c r="E14" s="17">
-        <f>SUBTOTAL(9,E12:E13)</f>
+        <f t="shared" ref="E14:N14" si="4">SUBTOTAL(9,E12:E13)</f>
         <v>4.1900000000000004</v>
       </c>
       <c r="F14" s="17">
-        <f>SUBTOTAL(9,F12:F13)</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="G14" s="17">
-        <f>SUBTOTAL(9,G12:G13)</f>
+        <f t="shared" si="4"/>
         <v>19070</v>
       </c>
       <c r="H14" s="17">
-        <f>SUBTOTAL(9,H12:H13)</f>
+        <f t="shared" si="4"/>
         <v>19780</v>
       </c>
       <c r="I14" s="17">
-        <f>SUBTOTAL(9,I12:I13)</f>
+        <f t="shared" si="4"/>
         <v>32000</v>
       </c>
       <c r="J14" s="17">
-        <f>SUBTOTAL(9,J12:J13)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="K14" s="17">
-        <f>SUBTOTAL(9,K12:K13)</f>
+        <f t="shared" si="4"/>
         <v>21470</v>
       </c>
       <c r="L14" s="17">
-        <f>SUBTOTAL(9,L12:L13)</f>
+        <f t="shared" si="4"/>
         <v>33290</v>
       </c>
       <c r="M14" s="17">
-        <f>SUBTOTAL(9,M12:M13)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N14" s="20">
-        <f>SUBTOTAL(9,N12:N13)</f>
+        <f t="shared" si="4"/>
         <v>69.833333333333329</v>
       </c>
     </row>
-    <row r="15" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" outlineLevel="2">
       <c r="A15" s="69">
         <v>9</v>
       </c>
@@ -14394,11 +14394,11 @@
         <v>0</v>
       </c>
       <c r="N15" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="64" customFormat="1" outlineLevel="2">
       <c r="A16" s="69">
         <v>10</v>
       </c>
@@ -14439,11 +14439,11 @@
         <v>0</v>
       </c>
       <c r="N16" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46.333333333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="62" customFormat="1" outlineLevel="1">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>46</v>
@@ -14451,47 +14451,47 @@
       <c r="C17" s="34"/>
       <c r="D17" s="19"/>
       <c r="E17" s="17">
-        <f>SUBTOTAL(9,E15:E16)</f>
+        <f t="shared" ref="E17:N17" si="5">SUBTOTAL(9,E15:E16)</f>
         <v>5.42</v>
       </c>
       <c r="F17" s="17">
-        <f>SUBTOTAL(9,F15:F16)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="G17" s="17">
-        <f>SUBTOTAL(9,G15:G16)</f>
+        <f t="shared" si="5"/>
         <v>17770</v>
       </c>
       <c r="H17" s="17">
-        <f>SUBTOTAL(9,H15:H16)</f>
+        <f t="shared" si="5"/>
         <v>16610</v>
       </c>
       <c r="I17" s="17">
-        <f>SUBTOTAL(9,I15:I16)</f>
+        <f t="shared" si="5"/>
         <v>30000</v>
       </c>
       <c r="J17" s="17">
-        <f>SUBTOTAL(9,J15:J16)</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K17" s="17">
-        <f>SUBTOTAL(9,K15:K16)</f>
+        <f t="shared" si="5"/>
         <v>25790</v>
       </c>
       <c r="L17" s="17">
-        <f>SUBTOTAL(9,L15:L16)</f>
+        <f t="shared" si="5"/>
         <v>33800</v>
       </c>
       <c r="M17" s="17">
-        <f>SUBTOTAL(9,M15:M16)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N17" s="20">
-        <f>SUBTOTAL(9,N15:N16)</f>
+        <f t="shared" si="5"/>
         <v>90.333333333333343</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="64" customFormat="1" outlineLevel="2">
       <c r="A18" s="69">
         <v>11</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="62" customFormat="1" outlineLevel="1">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>30</v>
@@ -14544,47 +14544,47 @@
       <c r="C19" s="34"/>
       <c r="D19" s="19"/>
       <c r="E19" s="17">
-        <f>SUBTOTAL(9,E18:E18)</f>
+        <f t="shared" ref="E19:N19" si="6">SUBTOTAL(9,E18:E18)</f>
         <v>2.34</v>
       </c>
       <c r="F19" s="17">
-        <f>SUBTOTAL(9,F18:F18)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="G19" s="17">
-        <f>SUBTOTAL(9,G18:G18)</f>
+        <f t="shared" si="6"/>
         <v>7540</v>
       </c>
       <c r="H19" s="17">
-        <f>SUBTOTAL(9,H18:H18)</f>
+        <f t="shared" si="6"/>
         <v>8260</v>
       </c>
       <c r="I19" s="17">
-        <f>SUBTOTAL(9,I18:I18)</f>
+        <f t="shared" si="6"/>
         <v>14000</v>
       </c>
       <c r="J19" s="17">
-        <f>SUBTOTAL(9,J18:J18)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="K19" s="17">
-        <f>SUBTOTAL(9,K18:K18)</f>
+        <f t="shared" si="6"/>
         <v>10320</v>
       </c>
       <c r="L19" s="17">
-        <f>SUBTOTAL(9,L18:L18)</f>
+        <f t="shared" si="6"/>
         <v>15430</v>
       </c>
       <c r="M19" s="17">
-        <f>SUBTOTAL(9,M18:M18)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N19" s="20">
-        <f>SUBTOTAL(9,N18:N18)</f>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="64" customFormat="1" outlineLevel="2">
       <c r="A20" s="69">
         <v>12</v>
       </c>
@@ -14625,11 +14625,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="14">
-        <f t="shared" ref="N20:N25" si="1">SUM((E20*500)/30)</f>
+        <f t="shared" ref="N20:N25" si="7">SUM((E20*500)/30)</f>
         <v>27.166666666666668</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" s="64" customFormat="1" outlineLevel="2">
       <c r="A21" s="69">
         <v>13</v>
       </c>
@@ -14670,11 +14670,11 @@
         <v>0</v>
       </c>
       <c r="N21" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>39.5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" s="64" customFormat="1" outlineLevel="2">
       <c r="A22" s="69">
         <v>14</v>
       </c>
@@ -14715,11 +14715,11 @@
         <v>0</v>
       </c>
       <c r="N22" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>28.166666666666668</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="62" customFormat="1" outlineLevel="1">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>31</v>
@@ -14727,47 +14727,47 @@
       <c r="C23" s="34"/>
       <c r="D23" s="19"/>
       <c r="E23" s="17">
-        <f>SUBTOTAL(9,E20:E22)</f>
+        <f t="shared" ref="E23:N23" si="8">SUBTOTAL(9,E20:E22)</f>
         <v>5.6899999999999995</v>
       </c>
       <c r="F23" s="17">
-        <f>SUBTOTAL(9,F20:F22)</f>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="G23" s="17">
-        <f>SUBTOTAL(9,G20:G22)</f>
+        <f t="shared" si="8"/>
         <v>26060</v>
       </c>
       <c r="H23" s="17">
-        <f>SUBTOTAL(9,H20:H22)</f>
+        <f t="shared" si="8"/>
         <v>25360</v>
       </c>
       <c r="I23" s="17">
-        <f>SUBTOTAL(9,I20:I22)</f>
+        <f t="shared" si="8"/>
         <v>47000</v>
       </c>
       <c r="J23" s="17">
-        <f>SUBTOTAL(9,J20:J22)</f>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="K23" s="17">
-        <f>SUBTOTAL(9,K20:K22)</f>
+        <f t="shared" si="8"/>
         <v>31810</v>
       </c>
       <c r="L23" s="17">
-        <f>SUBTOTAL(9,L20:L22)</f>
+        <f t="shared" si="8"/>
         <v>38000</v>
       </c>
       <c r="M23" s="17">
-        <f>SUBTOTAL(9,M20:M22)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N23" s="20">
-        <f>SUBTOTAL(9,N20:N22)</f>
+        <f t="shared" si="8"/>
         <v>94.833333333333343</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="64" customFormat="1" outlineLevel="2">
       <c r="A24" s="69">
         <v>15</v>
       </c>
@@ -14808,11 +14808,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>48.833333333333336</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="64" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="64" customFormat="1" outlineLevel="2">
       <c r="A25" s="69">
         <v>16</v>
       </c>
@@ -14853,11 +14853,11 @@
         <v>0</v>
       </c>
       <c r="N25" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>20.166666666666668</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="62" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" s="62" customFormat="1" outlineLevel="1">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>32</v>
@@ -14865,121 +14865,121 @@
       <c r="C26" s="34"/>
       <c r="D26" s="19"/>
       <c r="E26" s="17">
-        <f>SUBTOTAL(9,E24:E25)</f>
+        <f t="shared" ref="E26:N26" si="9">SUBTOTAL(9,E24:E25)</f>
         <v>4.1400000000000006</v>
       </c>
       <c r="F26" s="17">
-        <f>SUBTOTAL(9,F24:F25)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="G26" s="17">
-        <f>SUBTOTAL(9,G24:G25)</f>
+        <f t="shared" si="9"/>
         <v>16290</v>
       </c>
       <c r="H26" s="17">
-        <f>SUBTOTAL(9,H24:H25)</f>
+        <f t="shared" si="9"/>
         <v>15810</v>
       </c>
       <c r="I26" s="17">
-        <f>SUBTOTAL(9,I24:I25)</f>
+        <f t="shared" si="9"/>
         <v>36000</v>
       </c>
       <c r="J26" s="17">
-        <f>SUBTOTAL(9,J24:J25)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="K26" s="17">
-        <f>SUBTOTAL(9,K24:K25)</f>
+        <f t="shared" si="9"/>
         <v>21310</v>
       </c>
       <c r="L26" s="17">
-        <f>SUBTOTAL(9,L24:L25)</f>
+        <f t="shared" si="9"/>
         <v>29700</v>
       </c>
       <c r="M26" s="17">
-        <f>SUBTOTAL(9,M24:M25)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N26" s="20">
-        <f>SUBTOTAL(9,N24:N25)</f>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" s="67" customFormat="1">
       <c r="A27" s="31"/>
       <c r="B27" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="80"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="70"/>
       <c r="E27" s="31">
-        <f>SUBTOTAL(9,E3:E25)</f>
+        <f t="shared" ref="E27:N27" si="10">SUBTOTAL(9,E3:E25)</f>
         <v>34.350000000000009</v>
       </c>
       <c r="F27" s="31">
-        <f>SUBTOTAL(9,F3:F25)</f>
+        <f t="shared" si="10"/>
         <v>243</v>
       </c>
       <c r="G27" s="31">
-        <f>SUBTOTAL(9,G3:G25)</f>
+        <f t="shared" si="10"/>
         <v>131200</v>
       </c>
       <c r="H27" s="31">
-        <f>SUBTOTAL(9,H3:H25)</f>
+        <f t="shared" si="10"/>
         <v>133660</v>
       </c>
       <c r="I27" s="31">
-        <f>SUBTOTAL(9,I3:I25)</f>
+        <f t="shared" si="10"/>
         <v>251300</v>
       </c>
       <c r="J27" s="31">
-        <f>SUBTOTAL(9,J3:J25)</f>
+        <f t="shared" si="10"/>
         <v>323</v>
       </c>
       <c r="K27" s="31">
-        <f>SUBTOTAL(9,K3:K25)</f>
+        <f t="shared" si="10"/>
         <v>148740</v>
       </c>
       <c r="L27" s="31">
-        <f>SUBTOTAL(9,L3:L25)</f>
+        <f t="shared" si="10"/>
         <v>234760</v>
       </c>
       <c r="M27" s="31">
-        <f>SUBTOTAL(9,M3:M25)</f>
+        <f t="shared" si="10"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="N27" s="71">
-        <f>SUBTOTAL(9,N3:N25)</f>
+        <f t="shared" si="10"/>
         <v>572.5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="3:15" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="3:15" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="3:15" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="3:15" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" s="64" customFormat="1"/>
+    <row r="29" spans="1:14" s="62" customFormat="1"/>
+    <row r="30" spans="1:14" s="64" customFormat="1"/>
+    <row r="31" spans="1:14" s="64" customFormat="1"/>
+    <row r="32" spans="1:14" s="64" customFormat="1"/>
+    <row r="33" s="64" customFormat="1"/>
+    <row r="34" s="64" customFormat="1"/>
+    <row r="35" s="64" customFormat="1"/>
+    <row r="36" s="64" customFormat="1"/>
+    <row r="37" s="62" customFormat="1"/>
+    <row r="38" s="64" customFormat="1"/>
+    <row r="39" s="64" customFormat="1"/>
+    <row r="40" s="64" customFormat="1"/>
+    <row r="41" s="64" customFormat="1"/>
+    <row r="42" s="64" customFormat="1"/>
+    <row r="43" s="62" customFormat="1"/>
+    <row r="44" s="64" customFormat="1"/>
+    <row r="45" s="64" customFormat="1"/>
+    <row r="46" s="64" customFormat="1"/>
+    <row r="47" s="62" customFormat="1"/>
+    <row r="48" s="64" customFormat="1"/>
+    <row r="49" spans="3:15" s="64" customFormat="1"/>
+    <row r="50" spans="3:15" s="64" customFormat="1"/>
+    <row r="51" spans="3:15" s="64" customFormat="1"/>
+    <row r="52" spans="3:15" s="64" customFormat="1"/>
+    <row r="53" spans="3:15" s="62" customFormat="1"/>
+    <row r="54" spans="3:15">
       <c r="C54" s="60"/>
       <c r="E54" s="60"/>
       <c r="F54" s="60"/>
@@ -14993,7 +14993,7 @@
       <c r="N54" s="60"/>
       <c r="O54" s="60"/>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15">
       <c r="C55" s="60"/>
       <c r="E55" s="60"/>
       <c r="F55" s="60"/>
@@ -15007,7 +15007,7 @@
       <c r="N55" s="60"/>
       <c r="O55" s="60"/>
     </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:15">
       <c r="C56" s="60"/>
       <c r="E56" s="60"/>
       <c r="F56" s="60"/>
@@ -15021,7 +15021,7 @@
       <c r="N56" s="60"/>
       <c r="O56" s="60"/>
     </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:15">
       <c r="C57" s="60"/>
       <c r="E57" s="60"/>
       <c r="F57" s="60"/>
@@ -15035,8 +15035,8 @@
       <c r="N57" s="60"/>
       <c r="O57" s="60"/>
     </row>
-    <row r="58" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" s="62" customFormat="1"/>
+    <row r="59" spans="3:15">
       <c r="C59" s="60"/>
       <c r="E59" s="60"/>
       <c r="F59" s="60"/>
@@ -15050,7 +15050,7 @@
       <c r="N59" s="60"/>
       <c r="O59" s="60"/>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15">
       <c r="C60" s="60"/>
       <c r="E60" s="60"/>
       <c r="F60" s="60"/>
@@ -15064,7 +15064,7 @@
       <c r="N60" s="60"/>
       <c r="O60" s="60"/>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15">
       <c r="C61" s="60"/>
       <c r="E61" s="60"/>
       <c r="F61" s="60"/>
@@ -15078,8 +15078,8 @@
       <c r="N61" s="60"/>
       <c r="O61" s="60"/>
     </row>
-    <row r="62" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" s="62" customFormat="1"/>
+    <row r="63" spans="3:15">
       <c r="C63" s="60"/>
       <c r="E63" s="60"/>
       <c r="F63" s="60"/>
@@ -15093,7 +15093,7 @@
       <c r="N63" s="60"/>
       <c r="O63" s="60"/>
     </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:15">
       <c r="C64" s="60"/>
       <c r="E64" s="60"/>
       <c r="F64" s="60"/>
@@ -15107,7 +15107,7 @@
       <c r="N64" s="60"/>
       <c r="O64" s="60"/>
     </row>
-    <row r="65" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:15">
       <c r="C65" s="60"/>
       <c r="E65" s="60"/>
       <c r="F65" s="60"/>
@@ -15121,8 +15121,8 @@
       <c r="N65" s="60"/>
       <c r="O65" s="60"/>
     </row>
-    <row r="66" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:15" s="62" customFormat="1"/>
+    <row r="67" spans="3:15">
       <c r="C67" s="60"/>
       <c r="E67" s="60"/>
       <c r="F67" s="60"/>
@@ -15136,8 +15136,8 @@
       <c r="N67" s="60"/>
       <c r="O67" s="60"/>
     </row>
-    <row r="68" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:15" s="62" customFormat="1"/>
+    <row r="69" spans="3:15">
       <c r="C69" s="60"/>
       <c r="E69" s="60"/>
       <c r="F69" s="60"/>
@@ -15151,7 +15151,7 @@
       <c r="N69" s="60"/>
       <c r="O69" s="60"/>
     </row>
-    <row r="70" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:15">
       <c r="C70" s="60"/>
       <c r="E70" s="60"/>
       <c r="F70" s="60"/>
@@ -15165,7 +15165,7 @@
       <c r="N70" s="60"/>
       <c r="O70" s="60"/>
     </row>
-    <row r="71" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:15">
       <c r="C71" s="60"/>
       <c r="E71" s="60"/>
       <c r="F71" s="60"/>
@@ -15179,8 +15179,8 @@
       <c r="N71" s="60"/>
       <c r="O71" s="60"/>
     </row>
-    <row r="72" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:15" s="62" customFormat="1"/>
+    <row r="73" spans="3:15">
       <c r="C73" s="60"/>
       <c r="E73" s="60"/>
       <c r="F73" s="60"/>
@@ -15194,7 +15194,7 @@
       <c r="N73" s="60"/>
       <c r="O73" s="60"/>
     </row>
-    <row r="74" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:15">
       <c r="C74" s="60"/>
       <c r="E74" s="60"/>
       <c r="F74" s="60"/>
@@ -15208,7 +15208,7 @@
       <c r="N74" s="60"/>
       <c r="O74" s="60"/>
     </row>
-    <row r="75" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:15">
       <c r="C75" s="60"/>
       <c r="E75" s="60"/>
       <c r="F75" s="60"/>
@@ -15222,7 +15222,7 @@
       <c r="N75" s="60"/>
       <c r="O75" s="60"/>
     </row>
-    <row r="76" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:15">
       <c r="C76" s="60"/>
       <c r="E76" s="60"/>
       <c r="F76" s="60"/>
@@ -15236,7 +15236,7 @@
       <c r="N76" s="60"/>
       <c r="O76" s="60"/>
     </row>
-    <row r="77" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:15">
       <c r="C77" s="60"/>
       <c r="E77" s="60"/>
       <c r="F77" s="60"/>
@@ -15250,7 +15250,7 @@
       <c r="N77" s="60"/>
       <c r="O77" s="60"/>
     </row>
-    <row r="78" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:15">
       <c r="C78" s="60"/>
       <c r="E78" s="60"/>
       <c r="F78" s="60"/>
@@ -15264,7 +15264,7 @@
       <c r="N78" s="60"/>
       <c r="O78" s="60"/>
     </row>
-    <row r="79" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:15">
       <c r="C79" s="60"/>
       <c r="E79" s="60"/>
       <c r="F79" s="60"/>
@@ -15278,7 +15278,7 @@
       <c r="N79" s="60"/>
       <c r="O79" s="60"/>
     </row>
-    <row r="80" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:15">
       <c r="C80" s="60"/>
       <c r="E80" s="60"/>
       <c r="F80" s="60"/>
@@ -15292,8 +15292,8 @@
       <c r="N80" s="60"/>
       <c r="O80" s="60"/>
     </row>
-    <row r="81" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" s="62" customFormat="1"/>
+    <row r="82" spans="3:15">
       <c r="C82" s="60"/>
       <c r="E82" s="60"/>
       <c r="F82" s="60"/>
@@ -15307,7 +15307,7 @@
       <c r="N82" s="60"/>
       <c r="O82" s="60"/>
     </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:15">
       <c r="C83" s="60"/>
       <c r="E83" s="60"/>
       <c r="F83" s="60"/>
@@ -15321,7 +15321,7 @@
       <c r="N83" s="60"/>
       <c r="O83" s="60"/>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15">
       <c r="C84" s="60"/>
       <c r="E84" s="60"/>
       <c r="F84" s="60"/>
@@ -15335,7 +15335,7 @@
       <c r="N84" s="60"/>
       <c r="O84" s="60"/>
     </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:15">
       <c r="C85" s="60"/>
       <c r="E85" s="60"/>
       <c r="F85" s="60"/>
@@ -15349,7 +15349,7 @@
       <c r="N85" s="60"/>
       <c r="O85" s="60"/>
     </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:15">
       <c r="C86" s="60"/>
       <c r="E86" s="60"/>
       <c r="F86" s="60"/>
@@ -15363,7 +15363,7 @@
       <c r="N86" s="60"/>
       <c r="O86" s="60"/>
     </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:15">
       <c r="C87" s="60"/>
       <c r="E87" s="60"/>
       <c r="F87" s="60"/>
@@ -15377,8 +15377,8 @@
       <c r="N87" s="60"/>
       <c r="O87" s="60"/>
     </row>
-    <row r="88" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:15" s="62" customFormat="1"/>
+    <row r="89" spans="3:15">
       <c r="C89" s="60"/>
       <c r="E89" s="60"/>
       <c r="F89" s="60"/>
@@ -15392,7 +15392,7 @@
       <c r="N89" s="60"/>
       <c r="O89" s="60"/>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15">
       <c r="C90" s="60"/>
       <c r="E90" s="60"/>
       <c r="F90" s="60"/>
@@ -15406,7 +15406,7 @@
       <c r="N90" s="60"/>
       <c r="O90" s="60"/>
     </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:15">
       <c r="C91" s="60"/>
       <c r="E91" s="60"/>
       <c r="F91" s="60"/>
@@ -15420,7 +15420,7 @@
       <c r="N91" s="60"/>
       <c r="O91" s="60"/>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15">
       <c r="C92" s="60"/>
       <c r="E92" s="60"/>
       <c r="F92" s="60"/>
@@ -15434,7 +15434,7 @@
       <c r="N92" s="60"/>
       <c r="O92" s="60"/>
     </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:15">
       <c r="C93" s="60"/>
       <c r="E93" s="60"/>
       <c r="F93" s="60"/>
@@ -15448,7 +15448,7 @@
       <c r="N93" s="60"/>
       <c r="O93" s="60"/>
     </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:15">
       <c r="C94" s="60"/>
       <c r="E94" s="60"/>
       <c r="F94" s="60"/>
@@ -15462,7 +15462,7 @@
       <c r="N94" s="60"/>
       <c r="O94" s="60"/>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15">
       <c r="C95" s="60"/>
       <c r="E95" s="60"/>
       <c r="F95" s="60"/>
@@ -15476,7 +15476,7 @@
       <c r="N95" s="60"/>
       <c r="O95" s="60"/>
     </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:15">
       <c r="C96" s="60"/>
       <c r="E96" s="60"/>
       <c r="F96" s="60"/>
@@ -15490,7 +15490,7 @@
       <c r="N96" s="60"/>
       <c r="O96" s="60"/>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15">
       <c r="C97" s="60"/>
       <c r="E97" s="60"/>
       <c r="F97" s="60"/>
@@ -15504,7 +15504,7 @@
       <c r="N97" s="60"/>
       <c r="O97" s="60"/>
     </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:15">
       <c r="C98" s="60"/>
       <c r="E98" s="60"/>
       <c r="F98" s="60"/>
@@ -15518,7 +15518,7 @@
       <c r="N98" s="60"/>
       <c r="O98" s="60"/>
     </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:15">
       <c r="C99" s="60"/>
       <c r="E99" s="60"/>
       <c r="F99" s="60"/>
@@ -15532,7 +15532,7 @@
       <c r="N99" s="60"/>
       <c r="O99" s="60"/>
     </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:15">
       <c r="C100" s="60"/>
       <c r="E100" s="60"/>
       <c r="F100" s="60"/>
@@ -15546,7 +15546,7 @@
       <c r="N100" s="60"/>
       <c r="O100" s="60"/>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15">
       <c r="C101" s="60"/>
       <c r="E101" s="60"/>
       <c r="F101" s="60"/>
@@ -15560,7 +15560,7 @@
       <c r="N101" s="60"/>
       <c r="O101" s="60"/>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15">
       <c r="C102" s="60"/>
       <c r="E102" s="60"/>
       <c r="F102" s="60"/>
@@ -15574,7 +15574,7 @@
       <c r="N102" s="60"/>
       <c r="O102" s="60"/>
     </row>
-    <row r="103" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:15">
       <c r="C103" s="60"/>
       <c r="E103" s="60"/>
       <c r="F103" s="60"/>
@@ -15588,7 +15588,7 @@
       <c r="N103" s="60"/>
       <c r="O103" s="60"/>
     </row>
-    <row r="104" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:15">
       <c r="C104" s="60"/>
       <c r="E104" s="60"/>
       <c r="F104" s="60"/>
@@ -15602,7 +15602,7 @@
       <c r="N104" s="60"/>
       <c r="O104" s="60"/>
     </row>
-    <row r="105" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:15">
       <c r="C105" s="60"/>
       <c r="E105" s="60"/>
       <c r="F105" s="60"/>
@@ -15616,7 +15616,7 @@
       <c r="N105" s="60"/>
       <c r="O105" s="60"/>
     </row>
-    <row r="106" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:15">
       <c r="C106" s="60"/>
       <c r="E106" s="60"/>
       <c r="F106" s="60"/>
@@ -15630,7 +15630,7 @@
       <c r="N106" s="60"/>
       <c r="O106" s="60"/>
     </row>
-    <row r="107" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:15">
       <c r="C107" s="60"/>
       <c r="E107" s="60"/>
       <c r="F107" s="60"/>
@@ -15644,7 +15644,7 @@
       <c r="N107" s="60"/>
       <c r="O107" s="60"/>
     </row>
-    <row r="108" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:15">
       <c r="C108" s="60"/>
       <c r="E108" s="60"/>
       <c r="F108" s="60"/>
@@ -15658,7 +15658,7 @@
       <c r="N108" s="60"/>
       <c r="O108" s="60"/>
     </row>
-    <row r="109" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:15">
       <c r="C109" s="60"/>
       <c r="E109" s="60"/>
       <c r="F109" s="60"/>
@@ -15672,8 +15672,8 @@
       <c r="N109" s="60"/>
       <c r="O109" s="60"/>
     </row>
-    <row r="110" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:15" s="62" customFormat="1"/>
+    <row r="111" spans="3:15">
       <c r="C111" s="60"/>
       <c r="E111" s="60"/>
       <c r="F111" s="60"/>
@@ -15687,7 +15687,7 @@
       <c r="N111" s="60"/>
       <c r="O111" s="60"/>
     </row>
-    <row r="112" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:15">
       <c r="C112" s="60"/>
       <c r="E112" s="60"/>
       <c r="F112" s="60"/>
@@ -15701,7 +15701,7 @@
       <c r="N112" s="60"/>
       <c r="O112" s="60"/>
     </row>
-    <row r="113" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:15">
       <c r="C113" s="60"/>
       <c r="E113" s="60"/>
       <c r="F113" s="60"/>
@@ -15715,7 +15715,7 @@
       <c r="N113" s="60"/>
       <c r="O113" s="60"/>
     </row>
-    <row r="114" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:15">
       <c r="C114" s="60"/>
       <c r="E114" s="60"/>
       <c r="F114" s="60"/>
@@ -15729,7 +15729,7 @@
       <c r="N114" s="60"/>
       <c r="O114" s="60"/>
     </row>
-    <row r="115" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:15">
       <c r="C115" s="60"/>
       <c r="E115" s="60"/>
       <c r="F115" s="60"/>
@@ -15743,7 +15743,7 @@
       <c r="N115" s="60"/>
       <c r="O115" s="60"/>
     </row>
-    <row r="116" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:15">
       <c r="C116" s="60"/>
       <c r="E116" s="60"/>
       <c r="F116" s="60"/>
@@ -15757,8 +15757,8 @@
       <c r="N116" s="60"/>
       <c r="O116" s="60"/>
     </row>
-    <row r="117" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:15" s="62" customFormat="1"/>
+    <row r="118" spans="3:15">
       <c r="C118" s="60"/>
       <c r="E118" s="60"/>
       <c r="F118" s="60"/>
@@ -15772,7 +15772,7 @@
       <c r="N118" s="60"/>
       <c r="O118" s="60"/>
     </row>
-    <row r="119" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:15">
       <c r="C119" s="60"/>
       <c r="E119" s="60"/>
       <c r="F119" s="60"/>
@@ -15786,7 +15786,7 @@
       <c r="N119" s="60"/>
       <c r="O119" s="60"/>
     </row>
-    <row r="120" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:15">
       <c r="C120" s="60"/>
       <c r="E120" s="60"/>
       <c r="F120" s="60"/>
@@ -15800,7 +15800,7 @@
       <c r="N120" s="60"/>
       <c r="O120" s="60"/>
     </row>
-    <row r="121" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:15">
       <c r="C121" s="60"/>
       <c r="E121" s="60"/>
       <c r="F121" s="60"/>
@@ -15814,7 +15814,7 @@
       <c r="N121" s="60"/>
       <c r="O121" s="60"/>
     </row>
-    <row r="122" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:15">
       <c r="C122" s="60"/>
       <c r="E122" s="60"/>
       <c r="F122" s="60"/>
@@ -15828,7 +15828,7 @@
       <c r="N122" s="60"/>
       <c r="O122" s="60"/>
     </row>
-    <row r="123" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:15">
       <c r="C123" s="60"/>
       <c r="E123" s="60"/>
       <c r="F123" s="60"/>
@@ -15842,8 +15842,8 @@
       <c r="N123" s="60"/>
       <c r="O123" s="60"/>
     </row>
-    <row r="124" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:15" s="62" customFormat="1"/>
+    <row r="125" spans="3:15">
       <c r="C125" s="60"/>
       <c r="E125" s="60"/>
       <c r="F125" s="60"/>
@@ -15857,8 +15857,8 @@
       <c r="N125" s="60"/>
       <c r="O125" s="60"/>
     </row>
-    <row r="126" spans="3:15" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:15" s="64" customFormat="1"/>
+    <row r="127" spans="3:15">
       <c r="C127" s="60"/>
       <c r="E127" s="60"/>
       <c r="F127" s="60"/>
@@ -15872,7 +15872,7 @@
       <c r="N127" s="60"/>
       <c r="O127" s="60"/>
     </row>
-    <row r="128" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:15">
       <c r="C128" s="60"/>
       <c r="E128" s="60"/>
       <c r="F128" s="60"/>
@@ -15886,7 +15886,7 @@
       <c r="N128" s="60"/>
       <c r="O128" s="60"/>
     </row>
-    <row r="129" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:15">
       <c r="C129" s="60"/>
       <c r="E129" s="60"/>
       <c r="F129" s="60"/>
@@ -15900,8 +15900,8 @@
       <c r="N129" s="60"/>
       <c r="O129" s="60"/>
     </row>
-    <row r="130" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:15" s="62" customFormat="1"/>
+    <row r="131" spans="3:15">
       <c r="C131" s="60"/>
       <c r="E131" s="60"/>
       <c r="F131" s="60"/>
@@ -15915,7 +15915,7 @@
       <c r="N131" s="60"/>
       <c r="O131" s="60"/>
     </row>
-    <row r="132" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:15">
       <c r="C132" s="60"/>
       <c r="E132" s="60"/>
       <c r="F132" s="60"/>
@@ -15929,7 +15929,7 @@
       <c r="N132" s="60"/>
       <c r="O132" s="60"/>
     </row>
-    <row r="133" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:15">
       <c r="C133" s="60"/>
       <c r="E133" s="60"/>
       <c r="F133" s="60"/>
@@ -15943,10 +15943,10 @@
       <c r="N133" s="60"/>
       <c r="O133" s="60"/>
     </row>
-    <row r="134" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" spans="3:15" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:15" s="62" customFormat="1"/>
+    <row r="135" spans="3:15" s="64" customFormat="1"/>
+    <row r="136" spans="3:15" s="62" customFormat="1"/>
+    <row r="137" spans="3:15">
       <c r="C137" s="60"/>
       <c r="E137" s="60"/>
       <c r="F137" s="60"/>
@@ -15960,7 +15960,7 @@
       <c r="N137" s="60"/>
       <c r="O137" s="60"/>
     </row>
-    <row r="138" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:15">
       <c r="C138" s="60"/>
       <c r="E138" s="60"/>
       <c r="F138" s="60"/>
@@ -15974,7 +15974,7 @@
       <c r="N138" s="60"/>
       <c r="O138" s="60"/>
     </row>
-    <row r="139" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:15">
       <c r="C139" s="60"/>
       <c r="E139" s="60"/>
       <c r="F139" s="60"/>
@@ -15988,7 +15988,7 @@
       <c r="N139" s="60"/>
       <c r="O139" s="60"/>
     </row>
-    <row r="140" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:15">
       <c r="C140" s="60"/>
       <c r="E140" s="60"/>
       <c r="F140" s="60"/>
@@ -16002,7 +16002,7 @@
       <c r="N140" s="60"/>
       <c r="O140" s="60"/>
     </row>
-    <row r="141" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:15">
       <c r="C141" s="60"/>
       <c r="E141" s="60"/>
       <c r="F141" s="60"/>
@@ -16016,7 +16016,7 @@
       <c r="N141" s="60"/>
       <c r="O141" s="60"/>
     </row>
-    <row r="142" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:15">
       <c r="C142" s="60"/>
       <c r="E142" s="60"/>
       <c r="F142" s="60"/>
@@ -16030,7 +16030,7 @@
       <c r="N142" s="60"/>
       <c r="O142" s="60"/>
     </row>
-    <row r="143" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:15">
       <c r="C143" s="60"/>
       <c r="E143" s="60"/>
       <c r="F143" s="60"/>
@@ -16044,9 +16044,9 @@
       <c r="N143" s="60"/>
       <c r="O143" s="60"/>
     </row>
-    <row r="144" spans="3:15" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:15" s="64" customFormat="1"/>
+    <row r="145" spans="3:15" s="62" customFormat="1"/>
+    <row r="146" spans="3:15">
       <c r="C146" s="60"/>
       <c r="E146" s="60"/>
       <c r="F146" s="60"/>
@@ -16060,8 +16060,8 @@
       <c r="N146" s="60"/>
       <c r="O146" s="60"/>
     </row>
-    <row r="147" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:15" s="62" customFormat="1"/>
+    <row r="148" spans="3:15">
       <c r="C148" s="60"/>
       <c r="E148" s="60"/>
       <c r="F148" s="60"/>
@@ -16075,7 +16075,7 @@
       <c r="N148" s="60"/>
       <c r="O148" s="60"/>
     </row>
-    <row r="149" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:15">
       <c r="C149" s="60"/>
       <c r="E149" s="60"/>
       <c r="F149" s="60"/>
@@ -16089,7 +16089,7 @@
       <c r="N149" s="60"/>
       <c r="O149" s="60"/>
     </row>
-    <row r="150" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:15">
       <c r="C150" s="60"/>
       <c r="E150" s="60"/>
       <c r="F150" s="60"/>
@@ -16103,7 +16103,7 @@
       <c r="N150" s="60"/>
       <c r="O150" s="60"/>
     </row>
-    <row r="151" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:15">
       <c r="C151" s="60"/>
       <c r="E151" s="60"/>
       <c r="F151" s="60"/>
@@ -16117,7 +16117,7 @@
       <c r="N151" s="60"/>
       <c r="O151" s="60"/>
     </row>
-    <row r="152" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:15">
       <c r="C152" s="60"/>
       <c r="E152" s="60"/>
       <c r="F152" s="60"/>
@@ -16131,7 +16131,7 @@
       <c r="N152" s="60"/>
       <c r="O152" s="60"/>
     </row>
-    <row r="153" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:15">
       <c r="C153" s="60"/>
       <c r="E153" s="60"/>
       <c r="F153" s="60"/>
@@ -16145,8 +16145,8 @@
       <c r="N153" s="60"/>
       <c r="O153" s="60"/>
     </row>
-    <row r="154" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:15" s="62" customFormat="1"/>
+    <row r="155" spans="3:15">
       <c r="C155" s="60"/>
       <c r="E155" s="60"/>
       <c r="F155" s="60"/>
@@ -16160,7 +16160,7 @@
       <c r="N155" s="60"/>
       <c r="O155" s="60"/>
     </row>
-    <row r="156" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:15">
       <c r="C156" s="60"/>
       <c r="E156" s="60"/>
       <c r="F156" s="60"/>
@@ -16174,7 +16174,7 @@
       <c r="N156" s="60"/>
       <c r="O156" s="60"/>
     </row>
-    <row r="157" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:15">
       <c r="C157" s="60"/>
       <c r="E157" s="60"/>
       <c r="F157" s="60"/>
@@ -16188,7 +16188,7 @@
       <c r="N157" s="60"/>
       <c r="O157" s="60"/>
     </row>
-    <row r="158" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:15">
       <c r="C158" s="60"/>
       <c r="E158" s="60"/>
       <c r="F158" s="60"/>
@@ -16202,7 +16202,7 @@
       <c r="N158" s="60"/>
       <c r="O158" s="60"/>
     </row>
-    <row r="159" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:15">
       <c r="C159" s="60"/>
       <c r="E159" s="60"/>
       <c r="F159" s="60"/>
@@ -16216,8 +16216,8 @@
       <c r="N159" s="60"/>
       <c r="O159" s="60"/>
     </row>
-    <row r="160" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:15" s="62" customFormat="1"/>
+    <row r="161" spans="3:15">
       <c r="C161" s="60"/>
       <c r="E161" s="60"/>
       <c r="F161" s="60"/>
@@ -16231,7 +16231,7 @@
       <c r="N161" s="60"/>
       <c r="O161" s="60"/>
     </row>
-    <row r="162" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:15">
       <c r="C162" s="60"/>
       <c r="E162" s="60"/>
       <c r="F162" s="60"/>
@@ -16245,7 +16245,7 @@
       <c r="N162" s="60"/>
       <c r="O162" s="60"/>
     </row>
-    <row r="163" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:15">
       <c r="C163" s="60"/>
       <c r="E163" s="60"/>
       <c r="F163" s="60"/>
@@ -16259,7 +16259,7 @@
       <c r="N163" s="60"/>
       <c r="O163" s="60"/>
     </row>
-    <row r="164" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:15">
       <c r="C164" s="60"/>
       <c r="E164" s="60"/>
       <c r="F164" s="60"/>
@@ -16273,7 +16273,7 @@
       <c r="N164" s="60"/>
       <c r="O164" s="60"/>
     </row>
-    <row r="165" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:15">
       <c r="C165" s="60"/>
       <c r="E165" s="60"/>
       <c r="F165" s="60"/>
@@ -16287,8 +16287,8 @@
       <c r="N165" s="60"/>
       <c r="O165" s="60"/>
     </row>
-    <row r="166" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:15" s="62" customFormat="1"/>
+    <row r="167" spans="3:15">
       <c r="C167" s="60"/>
       <c r="E167" s="60"/>
       <c r="F167" s="60"/>
@@ -16302,7 +16302,7 @@
       <c r="N167" s="60"/>
       <c r="O167" s="60"/>
     </row>
-    <row r="168" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:15">
       <c r="C168" s="60"/>
       <c r="E168" s="60"/>
       <c r="F168" s="60"/>
@@ -16316,7 +16316,7 @@
       <c r="N168" s="60"/>
       <c r="O168" s="60"/>
     </row>
-    <row r="169" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:15">
       <c r="C169" s="60"/>
       <c r="E169" s="60"/>
       <c r="F169" s="60"/>
@@ -16330,8 +16330,8 @@
       <c r="N169" s="60"/>
       <c r="O169" s="60"/>
     </row>
-    <row r="170" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:15" s="62" customFormat="1"/>
+    <row r="171" spans="3:15">
       <c r="C171" s="60"/>
       <c r="E171" s="60"/>
       <c r="F171" s="60"/>
@@ -16345,7 +16345,7 @@
       <c r="N171" s="60"/>
       <c r="O171" s="60"/>
     </row>
-    <row r="172" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:15">
       <c r="C172" s="60"/>
       <c r="E172" s="60"/>
       <c r="F172" s="60"/>
@@ -16359,7 +16359,7 @@
       <c r="N172" s="60"/>
       <c r="O172" s="60"/>
     </row>
-    <row r="173" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:15">
       <c r="C173" s="60"/>
       <c r="E173" s="60"/>
       <c r="F173" s="60"/>
@@ -16373,7 +16373,7 @@
       <c r="N173" s="60"/>
       <c r="O173" s="60"/>
     </row>
-    <row r="174" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:15">
       <c r="C174" s="60"/>
       <c r="E174" s="60"/>
       <c r="F174" s="60"/>
@@ -16387,7 +16387,7 @@
       <c r="N174" s="60"/>
       <c r="O174" s="60"/>
     </row>
-    <row r="175" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:15">
       <c r="C175" s="60"/>
       <c r="E175" s="60"/>
       <c r="F175" s="60"/>
@@ -16401,7 +16401,7 @@
       <c r="N175" s="60"/>
       <c r="O175" s="60"/>
     </row>
-    <row r="176" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:15">
       <c r="C176" s="60"/>
       <c r="E176" s="60"/>
       <c r="F176" s="60"/>
@@ -16415,8 +16415,8 @@
       <c r="N176" s="60"/>
       <c r="O176" s="60"/>
     </row>
-    <row r="177" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:15" s="62" customFormat="1"/>
+    <row r="178" spans="3:15">
       <c r="C178" s="60"/>
       <c r="E178" s="60"/>
       <c r="F178" s="60"/>
@@ -16430,7 +16430,7 @@
       <c r="N178" s="60"/>
       <c r="O178" s="60"/>
     </row>
-    <row r="179" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:15">
       <c r="C179" s="60"/>
       <c r="E179" s="60"/>
       <c r="F179" s="60"/>
@@ -16444,7 +16444,7 @@
       <c r="N179" s="60"/>
       <c r="O179" s="60"/>
     </row>
-    <row r="180" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:15">
       <c r="C180" s="60"/>
       <c r="E180" s="60"/>
       <c r="F180" s="60"/>
@@ -16458,7 +16458,7 @@
       <c r="N180" s="60"/>
       <c r="O180" s="60"/>
     </row>
-    <row r="181" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:15">
       <c r="C181" s="60"/>
       <c r="E181" s="60"/>
       <c r="F181" s="60"/>
@@ -16472,7 +16472,7 @@
       <c r="N181" s="60"/>
       <c r="O181" s="60"/>
     </row>
-    <row r="182" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:15">
       <c r="C182" s="60"/>
       <c r="E182" s="60"/>
       <c r="F182" s="60"/>
@@ -16486,7 +16486,7 @@
       <c r="N182" s="60"/>
       <c r="O182" s="60"/>
     </row>
-    <row r="183" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:15">
       <c r="C183" s="60"/>
       <c r="E183" s="60"/>
       <c r="F183" s="60"/>
@@ -16500,7 +16500,7 @@
       <c r="N183" s="60"/>
       <c r="O183" s="60"/>
     </row>
-    <row r="184" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:15">
       <c r="C184" s="60"/>
       <c r="E184" s="60"/>
       <c r="F184" s="60"/>
@@ -16514,7 +16514,7 @@
       <c r="N184" s="60"/>
       <c r="O184" s="60"/>
     </row>
-    <row r="185" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:15">
       <c r="C185" s="60"/>
       <c r="E185" s="60"/>
       <c r="F185" s="60"/>
@@ -16528,8 +16528,8 @@
       <c r="N185" s="60"/>
       <c r="O185" s="60"/>
     </row>
-    <row r="186" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:15" s="62" customFormat="1"/>
+    <row r="187" spans="3:15">
       <c r="C187" s="60"/>
       <c r="E187" s="60"/>
       <c r="F187" s="60"/>
@@ -16543,7 +16543,7 @@
       <c r="N187" s="60"/>
       <c r="O187" s="60"/>
     </row>
-    <row r="188" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:15">
       <c r="C188" s="60"/>
       <c r="E188" s="60"/>
       <c r="F188" s="60"/>
@@ -16557,7 +16557,7 @@
       <c r="N188" s="60"/>
       <c r="O188" s="60"/>
     </row>
-    <row r="189" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:15">
       <c r="C189" s="60"/>
       <c r="E189" s="60"/>
       <c r="F189" s="60"/>
@@ -16571,7 +16571,7 @@
       <c r="N189" s="60"/>
       <c r="O189" s="60"/>
     </row>
-    <row r="190" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:15">
       <c r="C190" s="60"/>
       <c r="E190" s="60"/>
       <c r="F190" s="60"/>
@@ -16585,7 +16585,7 @@
       <c r="N190" s="60"/>
       <c r="O190" s="60"/>
     </row>
-    <row r="191" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:15">
       <c r="C191" s="60"/>
       <c r="E191" s="60"/>
       <c r="F191" s="60"/>
@@ -16599,8 +16599,8 @@
       <c r="N191" s="60"/>
       <c r="O191" s="60"/>
     </row>
-    <row r="192" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:15" s="62" customFormat="1"/>
+    <row r="193" spans="3:15">
       <c r="C193" s="60"/>
       <c r="E193" s="60"/>
       <c r="F193" s="60"/>
@@ -16614,7 +16614,7 @@
       <c r="N193" s="60"/>
       <c r="O193" s="60"/>
     </row>
-    <row r="194" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:15">
       <c r="C194" s="60"/>
       <c r="E194" s="60"/>
       <c r="F194" s="60"/>
@@ -16628,7 +16628,7 @@
       <c r="N194" s="60"/>
       <c r="O194" s="60"/>
     </row>
-    <row r="195" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:15">
       <c r="C195" s="60"/>
       <c r="E195" s="60"/>
       <c r="F195" s="60"/>
@@ -16642,8 +16642,8 @@
       <c r="N195" s="60"/>
       <c r="O195" s="60"/>
     </row>
-    <row r="196" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:15" s="62" customFormat="1"/>
+    <row r="197" spans="3:15">
       <c r="C197" s="60"/>
       <c r="E197" s="60"/>
       <c r="F197" s="60"/>
@@ -16657,7 +16657,7 @@
       <c r="N197" s="60"/>
       <c r="O197" s="60"/>
     </row>
-    <row r="198" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:15">
       <c r="C198" s="60"/>
       <c r="E198" s="60"/>
       <c r="F198" s="60"/>
@@ -16671,8 +16671,8 @@
       <c r="N198" s="60"/>
       <c r="O198" s="60"/>
     </row>
-    <row r="199" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:15" s="62" customFormat="1"/>
+    <row r="200" spans="3:15">
       <c r="C200" s="60"/>
       <c r="E200" s="60"/>
       <c r="F200" s="60"/>
@@ -16686,7 +16686,7 @@
       <c r="N200" s="60"/>
       <c r="O200" s="60"/>
     </row>
-    <row r="201" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:15">
       <c r="C201" s="60"/>
       <c r="E201" s="60"/>
       <c r="F201" s="60"/>
@@ -16700,7 +16700,7 @@
       <c r="N201" s="60"/>
       <c r="O201" s="60"/>
     </row>
-    <row r="202" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:15">
       <c r="C202" s="60"/>
       <c r="E202" s="60"/>
       <c r="F202" s="60"/>
@@ -16714,8 +16714,8 @@
       <c r="N202" s="60"/>
       <c r="O202" s="60"/>
     </row>
-    <row r="203" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:15" s="62" customFormat="1"/>
+    <row r="204" spans="3:15">
       <c r="C204" s="60"/>
       <c r="E204" s="60"/>
       <c r="F204" s="60"/>
@@ -16729,7 +16729,7 @@
       <c r="N204" s="60"/>
       <c r="O204" s="60"/>
     </row>
-    <row r="205" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:15">
       <c r="C205" s="60"/>
       <c r="E205" s="60"/>
       <c r="F205" s="60"/>
@@ -16743,7 +16743,7 @@
       <c r="N205" s="60"/>
       <c r="O205" s="60"/>
     </row>
-    <row r="206" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:15">
       <c r="C206" s="60"/>
       <c r="E206" s="60"/>
       <c r="F206" s="60"/>
@@ -16757,8 +16757,8 @@
       <c r="N206" s="60"/>
       <c r="O206" s="60"/>
     </row>
-    <row r="207" spans="3:15" s="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" spans="3:15" s="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" spans="3:15" s="62" customFormat="1"/>
+    <row r="208" spans="3:15" s="67" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
@@ -16766,6 +16766,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16777,15 +16782,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -16793,7 +16798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="29">
         <v>1</v>
       </c>
@@ -16801,7 +16806,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="29">
         <v>2</v>
       </c>
@@ -16809,7 +16814,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="29">
         <v>3</v>
       </c>
@@ -16817,7 +16822,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="29">
         <v>4</v>
       </c>
@@ -16825,7 +16830,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="29">
         <v>5</v>
       </c>
@@ -16833,7 +16838,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="29">
         <v>6</v>
       </c>
@@ -16841,7 +16846,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="29">
         <v>7</v>
       </c>
@@ -16849,7 +16854,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="29">
         <v>8</v>
       </c>
@@ -16857,39 +16862,44 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="29">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="29">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="29">
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="29">
         <v>12</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="17" thickBot="1">
       <c r="B15" s="3">
         <f>SUM(B3:B14)</f>
         <v>29.93</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:2" ht="17" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16901,15 +16911,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -16917,7 +16927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -16925,7 +16935,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -16933,7 +16943,7 @@
         <v>5.32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -16941,7 +16951,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -16949,7 +16959,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -16957,7 +16967,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -16965,7 +16975,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -16973,7 +16983,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -16981,7 +16991,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -16989,7 +16999,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -16997,7 +17007,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -17005,7 +17015,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -17013,16 +17023,21 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="17" thickBot="1">
       <c r="B15" s="3">
         <f>SUM(B3:B14)</f>
         <v>39.949999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:2" ht="17" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17034,18 +17049,18 @@
       <selection activeCell="B15" sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -17053,7 +17068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -17061,7 +17076,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -17069,7 +17084,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -17077,7 +17092,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -17085,7 +17100,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -17093,7 +17108,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -17101,7 +17116,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -17109,7 +17124,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -17117,7 +17132,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -17125,7 +17140,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -17133,7 +17148,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -17141,7 +17156,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -17149,15 +17164,20 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="17" thickBot="1">
       <c r="B15" s="3">
         <f>SUM(B3:B14)</f>
         <v>43.21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:2" ht="17" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17169,19 +17189,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="5"/>
     <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -17189,7 +17209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -17197,7 +17217,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -17205,7 +17225,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -17213,7 +17233,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -17221,7 +17241,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -17229,7 +17249,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -17237,7 +17257,7 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -17245,7 +17265,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -17253,7 +17273,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -17261,7 +17281,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -17269,7 +17289,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -17277,7 +17297,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -17285,15 +17305,20 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="17" thickBot="1">
       <c r="B15" s="3">
         <f>SUM(B3:B14)</f>
         <v>51.59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:2" ht="17" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17305,14 +17330,19 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>